--- a/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9998338294018013</v>
+      </c>
+      <c r="D3">
         <v>1.000041542384966</v>
-      </c>
-      <c r="D3">
-        <v>0.9998338294018013</v>
       </c>
       <c r="E3">
         <v>1.000041542384966</v>
       </c>
       <c r="F3">
-        <v>1.000041542384966</v>
+        <v>0.9998338294018013</v>
       </c>
       <c r="G3">
         <v>1.000110778348945</v>
@@ -695,7 +647,7 @@
         <v>1.000041542384966</v>
       </c>
       <c r="J3">
-        <v>0.9998338294018013</v>
+        <v>1.000041542384966</v>
       </c>
       <c r="K3">
         <v>1.000041542384966</v>
@@ -728,7 +680,7 @@
         <v>0.9999963069921955</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9996792108190689</v>
+      </c>
+      <c r="D4">
         <v>1.000080196972142</v>
-      </c>
-      <c r="D4">
-        <v>0.9996792108190689</v>
       </c>
       <c r="E4">
         <v>1.000080196972142</v>
       </c>
       <c r="F4">
-        <v>1.000080196972142</v>
+        <v>0.9996792108190689</v>
       </c>
       <c r="G4">
         <v>1.000213856818168</v>
@@ -757,7 +709,7 @@
         <v>1.000080196972142</v>
       </c>
       <c r="J4">
-        <v>0.9996792108190689</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="K4">
         <v>1.000080196972142</v>
@@ -790,7 +742,7 @@
         <v>0.999992870915444</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9993852483670057</v>
+      </c>
+      <c r="D5">
         <v>1.000153687088456</v>
-      </c>
-      <c r="D5">
-        <v>0.9993852483670057</v>
       </c>
       <c r="E5">
         <v>1.000153687088456</v>
       </c>
       <c r="F5">
-        <v>1.000153687088456</v>
+        <v>0.9993852483670057</v>
       </c>
       <c r="G5">
         <v>1.00040983087638</v>
@@ -819,7 +771,7 @@
         <v>1.000153687088456</v>
       </c>
       <c r="J5">
-        <v>0.9993852483670057</v>
+        <v>1.000153687088456</v>
       </c>
       <c r="K5">
         <v>1.000153687088456</v>
@@ -852,7 +804,7 @@
         <v>0.9999863381894659</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9990983566726137</v>
+      </c>
+      <c r="D6">
         <v>1.000225410929584</v>
-      </c>
-      <c r="D6">
-        <v>0.9990983566726137</v>
       </c>
       <c r="E6">
         <v>1.000225410929584</v>
       </c>
       <c r="F6">
-        <v>1.000225410929584</v>
+        <v>0.9990983566726137</v>
       </c>
       <c r="G6">
         <v>1.000601087844341</v>
@@ -881,7 +833,7 @@
         <v>1.000225410929584</v>
       </c>
       <c r="J6">
-        <v>0.9990983566726137</v>
+        <v>1.000225410929584</v>
       </c>
       <c r="K6">
         <v>1.000225410929584</v>
@@ -914,7 +866,7 @@
         <v>0.9999799616911645</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999887632774009</v>
+      </c>
+      <c r="D7">
         <v>1.000002809197956</v>
-      </c>
-      <c r="D7">
-        <v>0.9999887632774009</v>
       </c>
       <c r="E7">
         <v>1.000002809197956</v>
       </c>
       <c r="F7">
-        <v>1.000002809197956</v>
+        <v>0.9999887632774009</v>
       </c>
       <c r="G7">
         <v>1.000007489523538</v>
       </c>
       <c r="H7">
-        <v>0.9999938205776264</v>
+        <v>0.9999938205776262</v>
       </c>
       <c r="I7">
         <v>1.000002809197956</v>
       </c>
       <c r="J7">
-        <v>0.9999887632774009</v>
+        <v>1.000002809197956</v>
       </c>
       <c r="K7">
         <v>1.000002809197956</v>
@@ -958,7 +910,7 @@
         <v>0.9999957862376784</v>
       </c>
       <c r="O7">
-        <v>0.999995131017661</v>
+        <v>0.9999951310176609</v>
       </c>
       <c r="P7">
         <v>0.9999981272244375</v>
@@ -976,7 +928,7 @@
         <v>0.9999997501620722</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,16 +936,16 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999723579557037</v>
+      </c>
+      <c r="D8">
         <v>1.000006910556682</v>
-      </c>
-      <c r="D8">
-        <v>0.9999723579557039</v>
       </c>
       <c r="E8">
         <v>1.000006910556682</v>
       </c>
       <c r="F8">
-        <v>1.000006910556682</v>
+        <v>0.9999723579557037</v>
       </c>
       <c r="G8">
         <v>1.000018426751316</v>
@@ -1005,7 +957,7 @@
         <v>1.000006910556682</v>
       </c>
       <c r="J8">
-        <v>0.9999723579557039</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="K8">
         <v>1.000006910556682</v>
@@ -1038,7 +990,7 @@
         <v>0.9999993856954256</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.999962973868771</v>
+      </c>
+      <c r="D9">
         <v>1.000009256757541</v>
-      </c>
-      <c r="D9">
-        <v>0.999962973868771</v>
       </c>
       <c r="E9">
         <v>1.000009256757541</v>
       </c>
       <c r="F9">
-        <v>1.000009256757541</v>
+        <v>0.999962973868771</v>
       </c>
       <c r="G9">
         <v>1.000024683116354</v>
@@ -1067,7 +1019,7 @@
         <v>1.000009256757541</v>
       </c>
       <c r="J9">
-        <v>0.999962973868771</v>
+        <v>1.000009256757541</v>
       </c>
       <c r="K9">
         <v>1.000009256757541</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999991772696738</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9999186379145119</v>
+      </c>
+      <c r="D10">
         <v>1.000020339603811</v>
-      </c>
-      <c r="D10">
-        <v>0.9999186379145119</v>
       </c>
       <c r="E10">
         <v>1.000020339603811</v>
       </c>
       <c r="F10">
-        <v>1.000020339603811</v>
+        <v>0.9999186379145119</v>
       </c>
       <c r="G10">
         <v>1.000054239591022</v>
@@ -1129,7 +1081,7 @@
         <v>1.000020339603811</v>
       </c>
       <c r="J10">
-        <v>0.9999186379145119</v>
+        <v>1.000020339603811</v>
       </c>
       <c r="K10">
         <v>1.000020339603811</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999981912516125</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9998689146671162</v>
+      </c>
+      <c r="D11">
         <v>1.000032769204765</v>
-      </c>
-      <c r="D11">
-        <v>0.9998689146671162</v>
       </c>
       <c r="E11">
         <v>1.000032769204765</v>
       </c>
       <c r="F11">
-        <v>1.000032769204765</v>
+        <v>0.9998689146671162</v>
       </c>
       <c r="G11">
         <v>1.000087387853323</v>
@@ -1191,7 +1143,7 @@
         <v>1.000032769204765</v>
       </c>
       <c r="J11">
-        <v>0.9998689146671162</v>
+        <v>1.000032769204765</v>
       </c>
       <c r="K11">
         <v>1.000032769204765</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999970854220552</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,16 +1184,16 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.001179912910884</v>
+      </c>
+      <c r="D12">
         <v>0.9997050280197765</v>
-      </c>
-      <c r="D12">
-        <v>1.001179912910884</v>
       </c>
       <c r="E12">
         <v>0.9997050280197765</v>
       </c>
       <c r="F12">
-        <v>0.9997050280197765</v>
+        <v>1.001179912910884</v>
       </c>
       <c r="G12">
         <v>0.9992133912421399</v>
@@ -1253,7 +1205,7 @@
         <v>0.9997050280197765</v>
       </c>
       <c r="J12">
-        <v>1.001179912910884</v>
+        <v>0.9997050280197765</v>
       </c>
       <c r="K12">
         <v>0.9997050280197765</v>
@@ -1286,7 +1238,7 @@
         <v>1.000026222570216</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999239295944982</v>
+        <v>1.000304270852529</v>
       </c>
       <c r="D13">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="E13">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="F13">
         <v>1.000304270852529</v>
       </c>
-      <c r="E13">
-        <v>0.9999239295944982</v>
-      </c>
-      <c r="F13">
-        <v>0.9999239295944982</v>
-      </c>
       <c r="G13">
-        <v>0.9997971557457008</v>
+        <v>0.999797155745701</v>
       </c>
       <c r="H13">
-        <v>1.000167350290399</v>
+        <v>1.0001673502904</v>
       </c>
       <c r="I13">
-        <v>0.9999239295944982</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="J13">
-        <v>1.000304270852529</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="K13">
-        <v>0.9999239295944982</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="L13">
-        <v>0.9999239295944982</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="M13">
         <v>1.000114100223514</v>
@@ -1348,7 +1300,7 @@
         <v>1.000006760945354</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,16 +1308,16 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.003468659585671</v>
+      </c>
+      <c r="D14">
         <v>0.9991328313354622</v>
-      </c>
-      <c r="D14">
-        <v>1.003468659585671</v>
       </c>
       <c r="E14">
         <v>0.9991328313354622</v>
       </c>
       <c r="F14">
-        <v>0.9991328313354622</v>
+        <v>1.003468659585671</v>
       </c>
       <c r="G14">
         <v>0.9976875647952085</v>
@@ -1377,7 +1329,7 @@
         <v>0.9991328313354622</v>
       </c>
       <c r="J14">
-        <v>1.003468659585671</v>
+        <v>0.9991328313354622</v>
       </c>
       <c r="K14">
         <v>0.9991328313354622</v>
@@ -1410,7 +1362,7 @@
         <v>1.000077079679617</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,16 +1370,16 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.000914067258839</v>
+      </c>
+      <c r="D15">
         <v>0.9997714811504449</v>
-      </c>
-      <c r="D15">
-        <v>1.000914067258839</v>
       </c>
       <c r="E15">
         <v>0.9997714811504449</v>
       </c>
       <c r="F15">
-        <v>0.9997714811504449</v>
+        <v>1.000914067258839</v>
       </c>
       <c r="G15">
         <v>0.999390627392853</v>
@@ -1439,7 +1391,7 @@
         <v>0.9997714811504449</v>
       </c>
       <c r="J15">
-        <v>1.000914067258839</v>
+        <v>0.9997714811504449</v>
       </c>
       <c r="K15">
         <v>0.9997714811504449</v>
@@ -1472,7 +1424,7 @@
         <v>1.000020314053297</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000171758176</v>
+        <v>0.996759231071271</v>
       </c>
       <c r="D16">
-        <v>0.9999993120575538</v>
+        <v>1.000810196049184</v>
       </c>
       <c r="E16">
-        <v>1.000000171758176</v>
+        <v>1.000810196049184</v>
       </c>
       <c r="F16">
-        <v>1.000000171758176</v>
+        <v>0.996759231071271</v>
       </c>
       <c r="G16">
-        <v>1.000000456957074</v>
+        <v>1.00216050692219</v>
       </c>
       <c r="H16">
-        <v>0.9999996225261597</v>
+        <v>0.9982175762380466</v>
       </c>
       <c r="I16">
-        <v>1.000000171758176</v>
+        <v>1.000810196049184</v>
       </c>
       <c r="J16">
-        <v>0.9999993120575538</v>
+        <v>1.000810196049184</v>
       </c>
       <c r="K16">
-        <v>1.000000171758176</v>
+        <v>1.000810196049184</v>
       </c>
       <c r="L16">
-        <v>1.000000171758176</v>
+        <v>1.000810196049184</v>
       </c>
       <c r="M16">
-        <v>0.999999741907865</v>
+        <v>0.9987847135602272</v>
       </c>
       <c r="N16">
-        <v>0.999999741907865</v>
+        <v>0.9987847135602272</v>
       </c>
       <c r="O16">
-        <v>0.9999997021139633</v>
+        <v>0.998595667786167</v>
       </c>
       <c r="P16">
-        <v>0.999999885191302</v>
+        <v>0.9994598743898794</v>
       </c>
       <c r="Q16">
-        <v>0.999999885191302</v>
+        <v>0.9994598743898794</v>
       </c>
       <c r="R16">
-        <v>0.9999999568330206</v>
+        <v>0.9997974548047054</v>
       </c>
       <c r="S16">
-        <v>0.9999999568330206</v>
+        <v>0.9997974548047054</v>
       </c>
       <c r="T16">
-        <v>0.9999999844692194</v>
+        <v>0.999927983729843</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003633233061</v>
+        <v>0.9973492772876748</v>
       </c>
       <c r="D17">
-        <v>0.9999854663324843</v>
+        <v>1.000662682870825</v>
       </c>
       <c r="E17">
-        <v>1.000003633233061</v>
+        <v>1.000662682870825</v>
       </c>
       <c r="F17">
-        <v>1.000003633233061</v>
+        <v>0.9973492772876748</v>
       </c>
       <c r="G17">
-        <v>1.000009687114081</v>
+        <v>1.001767144872702</v>
       </c>
       <c r="H17">
-        <v>0.999992007432334</v>
+        <v>0.9985421021012982</v>
       </c>
       <c r="I17">
-        <v>1.000003633233061</v>
+        <v>1.000662682870825</v>
       </c>
       <c r="J17">
-        <v>0.9999854663324843</v>
+        <v>1.000662682870825</v>
       </c>
       <c r="K17">
-        <v>1.000003633233061</v>
+        <v>1.000662682870825</v>
       </c>
       <c r="L17">
-        <v>1.000003633233061</v>
+        <v>1.000662682870825</v>
       </c>
       <c r="M17">
-        <v>0.9999945497827728</v>
+        <v>0.9990059800792497</v>
       </c>
       <c r="N17">
-        <v>0.9999945497827728</v>
+        <v>0.9990059800792497</v>
       </c>
       <c r="O17">
-        <v>0.9999937023326265</v>
+        <v>0.9988513540865992</v>
       </c>
       <c r="P17">
-        <v>0.9999975775995357</v>
+        <v>0.9995582143431081</v>
       </c>
       <c r="Q17">
-        <v>0.9999975775995357</v>
+        <v>0.9995582143431081</v>
       </c>
       <c r="R17">
-        <v>0.9999990915079171</v>
+        <v>0.9998343314750373</v>
       </c>
       <c r="S17">
-        <v>0.9999990915079171</v>
+        <v>0.9998343314750373</v>
       </c>
       <c r="T17">
-        <v>0.9999996767630138</v>
+        <v>0.9999410954790249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00001278762057</v>
+        <v>0.9985380041173821</v>
       </c>
       <c r="D18">
-        <v>0.9999488371896739</v>
+        <v>1.000365495068194</v>
       </c>
       <c r="E18">
-        <v>1.00001278762057</v>
+        <v>1.000365495068194</v>
       </c>
       <c r="F18">
-        <v>1.00001278762057</v>
+        <v>0.9985380041173821</v>
       </c>
       <c r="G18">
-        <v>1.00003410667459</v>
+        <v>1.000974663415806</v>
       </c>
       <c r="H18">
-        <v>0.9999718608593136</v>
+        <v>0.9991959026782422</v>
       </c>
       <c r="I18">
-        <v>1.00001278762057</v>
+        <v>1.000365495068194</v>
       </c>
       <c r="J18">
-        <v>0.9999488371896739</v>
+        <v>1.000365495068194</v>
       </c>
       <c r="K18">
-        <v>1.00001278762057</v>
+        <v>1.000365495068194</v>
       </c>
       <c r="L18">
-        <v>1.00001278762057</v>
+        <v>1.000365495068194</v>
       </c>
       <c r="M18">
-        <v>0.9999808124051222</v>
+        <v>0.9994517495927883</v>
       </c>
       <c r="N18">
-        <v>0.9999808124051222</v>
+        <v>0.9994517495927883</v>
       </c>
       <c r="O18">
-        <v>0.9999778285565193</v>
+        <v>0.9993664672879395</v>
       </c>
       <c r="P18">
-        <v>0.9999914708102716</v>
+        <v>0.9997563314179235</v>
       </c>
       <c r="Q18">
-        <v>0.9999914708102716</v>
+        <v>0.9997563314179235</v>
       </c>
       <c r="R18">
-        <v>0.9999968000128463</v>
+        <v>0.9999086223304913</v>
       </c>
       <c r="S18">
-        <v>0.9999968000128463</v>
+        <v>0.9999086223304913</v>
       </c>
       <c r="T18">
-        <v>0.9999988612642148</v>
+        <v>0.9999675092360022</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9983975772126924</v>
+      </c>
+      <c r="D19">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="E19">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="F19">
+        <v>0.9983975772126924</v>
+      </c>
+      <c r="G19">
+        <v>1.001068278640711</v>
+      </c>
+      <c r="H19">
+        <v>0.9991186698809448</v>
+      </c>
+      <c r="I19">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="J19">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="K19">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="L19">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="M19">
+        <v>0.9993990904601306</v>
+      </c>
+      <c r="N19">
+        <v>0.9993990904601306</v>
+      </c>
+      <c r="O19">
+        <v>0.9993056169337353</v>
+      </c>
+      <c r="P19">
+        <v>0.9997329282092767</v>
+      </c>
+      <c r="Q19">
+        <v>0.9997329282092767</v>
+      </c>
+      <c r="R19">
+        <v>0.9998998470838498</v>
+      </c>
+      <c r="S19">
+        <v>0.9998998470838498</v>
+      </c>
+      <c r="T19">
+        <v>0.9999643894761757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999993120575539</v>
+      </c>
+      <c r="D20">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="E20">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="F20">
+        <v>0.9999993120575539</v>
+      </c>
+      <c r="G20">
+        <v>1.000000456957074</v>
+      </c>
+      <c r="H20">
+        <v>0.9999996225261597</v>
+      </c>
+      <c r="I20">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="J20">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="K20">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="L20">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="M20">
+        <v>0.999999741907865</v>
+      </c>
+      <c r="N20">
+        <v>0.999999741907865</v>
+      </c>
+      <c r="O20">
+        <v>0.9999997021139633</v>
+      </c>
+      <c r="P20">
+        <v>0.999999885191302</v>
+      </c>
+      <c r="Q20">
+        <v>0.999999885191302</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999568330206</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999568330206</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999844692194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999854663324844</v>
+      </c>
+      <c r="D21">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="E21">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="F21">
+        <v>0.9999854663324844</v>
+      </c>
+      <c r="G21">
+        <v>1.000009687114081</v>
+      </c>
+      <c r="H21">
+        <v>0.9999920074323341</v>
+      </c>
+      <c r="I21">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="J21">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="K21">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="L21">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="M21">
+        <v>0.9999945497827729</v>
+      </c>
+      <c r="N21">
+        <v>0.9999945497827729</v>
+      </c>
+      <c r="O21">
+        <v>0.9999937023326266</v>
+      </c>
+      <c r="P21">
+        <v>0.9999975775995358</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999975775995358</v>
+      </c>
+      <c r="R21">
+        <v>0.9999990915079171</v>
+      </c>
+      <c r="S21">
+        <v>0.9999990915079171</v>
+      </c>
+      <c r="T21">
+        <v>0.9999996767630139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999488371896739</v>
+      </c>
+      <c r="D22">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="E22">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="F22">
+        <v>0.9999488371896739</v>
+      </c>
+      <c r="G22">
+        <v>1.00003410667459</v>
+      </c>
+      <c r="H22">
+        <v>0.9999718608593138</v>
+      </c>
+      <c r="I22">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="J22">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="K22">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="L22">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="M22">
+        <v>0.9999808124051222</v>
+      </c>
+      <c r="N22">
+        <v>0.9999808124051222</v>
+      </c>
+      <c r="O22">
+        <v>0.9999778285565194</v>
+      </c>
+      <c r="P22">
+        <v>0.9999914708102716</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999914708102716</v>
+      </c>
+      <c r="R22">
+        <v>0.9999968000128463</v>
+      </c>
+      <c r="S22">
+        <v>0.9999968000128463</v>
+      </c>
+      <c r="T22">
+        <v>0.9999988612642149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9998801376303003</v>
+      </c>
+      <c r="D23">
         <v>1.00002996107644</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.00002996107644</v>
+      </c>
+      <c r="F23">
         <v>0.9998801376303003</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.000079903038465</v>
+      </c>
+      <c r="H23">
+        <v>0.9999340814891517</v>
+      </c>
+      <c r="I23">
         <v>1.00002996107644</v>
       </c>
-      <c r="F19">
+      <c r="J23">
         <v>1.00002996107644</v>
       </c>
-      <c r="G19">
-        <v>1.000079903038465</v>
-      </c>
-      <c r="H19">
-        <v>0.9999340814891517</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.00002996107644</v>
       </c>
-      <c r="J19">
-        <v>0.9998801376303003</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.00002996107644</v>
       </c>
-      <c r="L19">
-        <v>1.00002996107644</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999550493533702</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999550493533702</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9999480600652975</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999800199277269</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999800199277269</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999925052149052</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999925052149052</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999973342312063</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998338294018013</v>
+        <v>0.998261867471183</v>
       </c>
       <c r="D3">
-        <v>1.000041542384966</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="E3">
-        <v>1.000041542384966</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="F3">
-        <v>0.9998338294018013</v>
+        <v>0.998261867471183</v>
       </c>
       <c r="G3">
-        <v>1.000110778348945</v>
+        <v>1.001158755734869</v>
       </c>
       <c r="H3">
-        <v>0.9999086070475278</v>
+        <v>0.9990440275072021</v>
       </c>
       <c r="I3">
-        <v>1.000041542384966</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="J3">
-        <v>1.000041542384966</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="K3">
-        <v>1.000041542384966</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="L3">
-        <v>1.000041542384966</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="M3">
-        <v>0.9999376858933837</v>
+        <v>0.9993481993083586</v>
       </c>
       <c r="N3">
-        <v>0.9999376858933837</v>
+        <v>0.9993481993083586</v>
       </c>
       <c r="O3">
-        <v>0.9999279929447651</v>
+        <v>0.9992468087079732</v>
       </c>
       <c r="P3">
-        <v>0.9999723047239112</v>
+        <v>0.9997103099207504</v>
       </c>
       <c r="Q3">
-        <v>0.9999723047239112</v>
+        <v>0.9997103099207504</v>
       </c>
       <c r="R3">
-        <v>0.999989614139175</v>
+        <v>0.9998913652269463</v>
       </c>
       <c r="S3">
-        <v>0.999989614139175</v>
+        <v>0.9998913652269463</v>
       </c>
       <c r="T3">
-        <v>0.9999963069921955</v>
+        <v>0.9999613740249761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996792108190689</v>
+        <v>0.9984089600503143</v>
       </c>
       <c r="D4">
-        <v>1.000080196972142</v>
+        <v>1.000397758507268</v>
       </c>
       <c r="E4">
-        <v>1.000080196972142</v>
+        <v>1.000397758507268</v>
       </c>
       <c r="F4">
-        <v>0.9996792108190689</v>
+        <v>0.9984089600503143</v>
       </c>
       <c r="G4">
-        <v>1.000213856818168</v>
+        <v>1.001060693932169</v>
       </c>
       <c r="H4">
-        <v>0.9998235669390027</v>
+        <v>0.9991249284998133</v>
       </c>
       <c r="I4">
-        <v>1.000080196972142</v>
+        <v>1.000397758507268</v>
       </c>
       <c r="J4">
-        <v>1.000080196972142</v>
+        <v>1.000397758507268</v>
       </c>
       <c r="K4">
-        <v>1.000080196972142</v>
+        <v>1.000397758507268</v>
       </c>
       <c r="L4">
-        <v>1.000080196972142</v>
+        <v>1.000397758507268</v>
       </c>
       <c r="M4">
-        <v>0.9998797038956052</v>
+        <v>0.9994033592787913</v>
       </c>
       <c r="N4">
-        <v>0.9998797038956052</v>
+        <v>0.9994033592787913</v>
       </c>
       <c r="O4">
-        <v>0.9998609915767377</v>
+        <v>0.999310549019132</v>
       </c>
       <c r="P4">
-        <v>0.9999465349211173</v>
+        <v>0.9997348256882836</v>
       </c>
       <c r="Q4">
-        <v>0.9999465349211173</v>
+        <v>0.9997348256882836</v>
       </c>
       <c r="R4">
-        <v>0.9999799504338733</v>
+        <v>0.9999005588930299</v>
       </c>
       <c r="S4">
-        <v>0.9999799504338733</v>
+        <v>0.9999005588930299</v>
       </c>
       <c r="T4">
-        <v>0.999992870915444</v>
+        <v>0.9999646430006836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9993852483670057</v>
+        <v>0.9979840039622628</v>
       </c>
       <c r="D5">
-        <v>1.000153687088456</v>
+        <v>1.000503989568734</v>
       </c>
       <c r="E5">
-        <v>1.000153687088456</v>
+        <v>1.000503989568734</v>
       </c>
       <c r="F5">
-        <v>0.9993852483670057</v>
+        <v>0.9979840039622628</v>
       </c>
       <c r="G5">
-        <v>1.00040983087638</v>
+        <v>1.001343996981132</v>
       </c>
       <c r="H5">
-        <v>0.9996618886280433</v>
+        <v>0.9988912043665761</v>
       </c>
       <c r="I5">
-        <v>1.000153687088456</v>
+        <v>1.000503989568734</v>
       </c>
       <c r="J5">
-        <v>1.000153687088456</v>
+        <v>1.000503989568734</v>
       </c>
       <c r="K5">
-        <v>1.000153687088456</v>
+        <v>1.000503989568734</v>
       </c>
       <c r="L5">
-        <v>1.000153687088456</v>
+        <v>1.000503989568734</v>
       </c>
       <c r="M5">
-        <v>0.9997694677277307</v>
+        <v>0.9992439967654987</v>
       </c>
       <c r="N5">
-        <v>0.9997694677277307</v>
+        <v>0.9992439967654987</v>
       </c>
       <c r="O5">
-        <v>0.9997336080278348</v>
+        <v>0.9991263992991911</v>
       </c>
       <c r="P5">
-        <v>0.9998975408479723</v>
+        <v>0.9996639943665772</v>
       </c>
       <c r="Q5">
-        <v>0.9998975408479723</v>
+        <v>0.9996639943665772</v>
       </c>
       <c r="R5">
-        <v>0.9999615774080931</v>
+        <v>0.9998739931671166</v>
       </c>
       <c r="S5">
-        <v>0.9999615774080931</v>
+        <v>0.9998739931671166</v>
       </c>
       <c r="T5">
-        <v>0.9999863381894659</v>
+        <v>0.9999551956693624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9990983566726137</v>
+        <v>0.9977263277840929</v>
       </c>
       <c r="D6">
-        <v>1.000225410929584</v>
+        <v>1.000568413636364</v>
       </c>
       <c r="E6">
-        <v>1.000225410929584</v>
+        <v>1.000568413636364</v>
       </c>
       <c r="F6">
-        <v>0.9990983566726137</v>
+        <v>0.9977263277840929</v>
       </c>
       <c r="G6">
-        <v>1.000601087844341</v>
+        <v>1.001515777727273</v>
       </c>
       <c r="H6">
-        <v>0.9995040928412798</v>
+        <v>0.9987494827272727</v>
       </c>
       <c r="I6">
-        <v>1.000225410929584</v>
+        <v>1.000568413636364</v>
       </c>
       <c r="J6">
-        <v>1.000225410929584</v>
+        <v>1.000568413636364</v>
       </c>
       <c r="K6">
-        <v>1.000225410929584</v>
+        <v>1.000568413636364</v>
       </c>
       <c r="L6">
-        <v>1.000225410929584</v>
+        <v>1.000568413636364</v>
       </c>
       <c r="M6">
-        <v>0.999661883801099</v>
+        <v>0.9991473707102283</v>
       </c>
       <c r="N6">
-        <v>0.999661883801099</v>
+        <v>0.9991473707102283</v>
       </c>
       <c r="O6">
-        <v>0.9996092868144926</v>
+        <v>0.9990147413825765</v>
       </c>
       <c r="P6">
-        <v>0.9998497261772608</v>
+        <v>0.9996210516856068</v>
       </c>
       <c r="Q6">
-        <v>0.9998497261772608</v>
+        <v>0.9996210516856068</v>
       </c>
       <c r="R6">
-        <v>0.9999436473653416</v>
+        <v>0.999857892173296</v>
       </c>
       <c r="S6">
-        <v>0.9999436473653416</v>
+        <v>0.999857892173296</v>
       </c>
       <c r="T6">
-        <v>0.9999799616911645</v>
+        <v>0.9999494715246217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999887632774009</v>
+        <v>0.9989729489011322</v>
       </c>
       <c r="D7">
-        <v>1.000002809197956</v>
+        <v>1.000256763113006</v>
       </c>
       <c r="E7">
-        <v>1.000002809197956</v>
+        <v>1.000256763113006</v>
       </c>
       <c r="F7">
-        <v>0.9999887632774009</v>
+        <v>0.9989729489011322</v>
       </c>
       <c r="G7">
-        <v>1.000007489523538</v>
+        <v>1.000684701475536</v>
       </c>
       <c r="H7">
-        <v>0.9999938205776262</v>
+        <v>0.9994351194078455</v>
       </c>
       <c r="I7">
-        <v>1.000002809197956</v>
+        <v>1.000256763113006</v>
       </c>
       <c r="J7">
-        <v>1.000002809197956</v>
+        <v>1.000256763113006</v>
       </c>
       <c r="K7">
-        <v>1.000002809197956</v>
+        <v>1.000256763113006</v>
       </c>
       <c r="L7">
-        <v>1.000002809197956</v>
+        <v>1.000256763113006</v>
       </c>
       <c r="M7">
-        <v>0.9999957862376784</v>
+        <v>0.999614856007069</v>
       </c>
       <c r="N7">
-        <v>0.9999957862376784</v>
+        <v>0.999614856007069</v>
       </c>
       <c r="O7">
-        <v>0.9999951310176609</v>
+        <v>0.9995549438073278</v>
       </c>
       <c r="P7">
-        <v>0.9999981272244375</v>
+        <v>0.9998288250423814</v>
       </c>
       <c r="Q7">
-        <v>0.9999981272244375</v>
+        <v>0.9998288250423814</v>
       </c>
       <c r="R7">
-        <v>0.9999992977178171</v>
+        <v>0.9999358095600375</v>
       </c>
       <c r="S7">
-        <v>0.9999992977178171</v>
+        <v>0.9999358095600375</v>
       </c>
       <c r="T7">
-        <v>0.9999997501620722</v>
+        <v>0.9999771765205884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999723579557037</v>
+        <v>0.998943343752234</v>
       </c>
       <c r="D8">
-        <v>1.000006910556682</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="E8">
-        <v>1.000006910556682</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="F8">
-        <v>0.9999723579557037</v>
+        <v>0.998943343752234</v>
       </c>
       <c r="G8">
-        <v>1.000018426751316</v>
+        <v>1.000704438409877</v>
       </c>
       <c r="H8">
-        <v>0.9999847977954885</v>
+        <v>0.9994188365055918</v>
       </c>
       <c r="I8">
-        <v>1.000006910556682</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="J8">
-        <v>1.000006910556682</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="K8">
-        <v>1.000006910556682</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="L8">
-        <v>1.000006910556682</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="M8">
-        <v>0.9999896342561927</v>
+        <v>0.9996037540152187</v>
       </c>
       <c r="N8">
-        <v>0.9999896342561927</v>
+        <v>0.9996037540152187</v>
       </c>
       <c r="O8">
-        <v>0.9999880221026247</v>
+        <v>0.9995421148453431</v>
       </c>
       <c r="P8">
-        <v>0.9999953930230223</v>
+        <v>0.999823890769547</v>
       </c>
       <c r="Q8">
-        <v>0.9999953930230223</v>
+        <v>0.999823890769547</v>
       </c>
       <c r="R8">
-        <v>0.9999982724064371</v>
+        <v>0.9999339591467111</v>
       </c>
       <c r="S8">
-        <v>0.9999982724064371</v>
+        <v>0.9999339591467111</v>
       </c>
       <c r="T8">
-        <v>0.9999993856954256</v>
+        <v>0.9999765185837189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999962973868771</v>
+        <v>0.9989145226606061</v>
       </c>
       <c r="D9">
-        <v>1.000009256757541</v>
+        <v>1.000271369358632</v>
       </c>
       <c r="E9">
-        <v>1.000009256757541</v>
+        <v>1.000271369358632</v>
       </c>
       <c r="F9">
-        <v>0.999962973868771</v>
+        <v>0.9989145226606061</v>
       </c>
       <c r="G9">
-        <v>1.000024683116354</v>
+        <v>1.000723652535803</v>
       </c>
       <c r="H9">
-        <v>0.9999796363602951</v>
+        <v>0.9994029849022249</v>
       </c>
       <c r="I9">
-        <v>1.000009256757541</v>
+        <v>1.000271369358632</v>
       </c>
       <c r="J9">
-        <v>1.000009256757541</v>
+        <v>1.000271369358632</v>
       </c>
       <c r="K9">
-        <v>1.000009256757541</v>
+        <v>1.000271369358632</v>
       </c>
       <c r="L9">
-        <v>1.000009256757541</v>
+        <v>1.000271369358632</v>
       </c>
       <c r="M9">
-        <v>0.9999861153131561</v>
+        <v>0.9995929460096189</v>
       </c>
       <c r="N9">
-        <v>0.9999861153131561</v>
+        <v>0.9995929460096189</v>
       </c>
       <c r="O9">
-        <v>0.9999839556622024</v>
+        <v>0.9995296256404876</v>
       </c>
       <c r="P9">
-        <v>0.9999938291279511</v>
+        <v>0.9998190871259566</v>
       </c>
       <c r="Q9">
-        <v>0.9999938291279511</v>
+        <v>0.9998190871259566</v>
       </c>
       <c r="R9">
-        <v>0.9999976860353486</v>
+        <v>0.9999321576841254</v>
       </c>
       <c r="S9">
-        <v>0.9999976860353486</v>
+        <v>0.9999321576841254</v>
       </c>
       <c r="T9">
-        <v>0.9999991772696738</v>
+        <v>0.9999758780290883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999186379145119</v>
+        <v>0.9988789206625814</v>
       </c>
       <c r="D10">
-        <v>1.000020339603811</v>
+        <v>1.000280269549082</v>
       </c>
       <c r="E10">
-        <v>1.000020339603811</v>
+        <v>1.000280269549082</v>
       </c>
       <c r="F10">
-        <v>0.9999186379145119</v>
+        <v>0.9988789206625814</v>
       </c>
       <c r="G10">
-        <v>1.000054239591022</v>
+        <v>1.000747387519628</v>
       </c>
       <c r="H10">
-        <v>0.999955251192706</v>
+        <v>0.9993834033821188</v>
       </c>
       <c r="I10">
-        <v>1.000020339603811</v>
+        <v>1.000280269549082</v>
       </c>
       <c r="J10">
-        <v>1.000020339603811</v>
+        <v>1.000280269549082</v>
       </c>
       <c r="K10">
-        <v>1.000020339603811</v>
+        <v>1.000280269549082</v>
       </c>
       <c r="L10">
-        <v>1.000020339603811</v>
+        <v>1.000280269549082</v>
       </c>
       <c r="M10">
-        <v>0.9999694887591617</v>
+        <v>0.9995795951058315</v>
       </c>
       <c r="N10">
-        <v>0.9999694887591617</v>
+        <v>0.9995795951058315</v>
       </c>
       <c r="O10">
-        <v>0.9999647429036765</v>
+        <v>0.9995141978645939</v>
       </c>
       <c r="P10">
-        <v>0.9999864390407116</v>
+        <v>0.9998131532535816</v>
       </c>
       <c r="Q10">
-        <v>0.9999864390407116</v>
+        <v>0.9998131532535816</v>
       </c>
       <c r="R10">
-        <v>0.9999949141814866</v>
+        <v>0.9999299323274566</v>
       </c>
       <c r="S10">
-        <v>0.9999949141814866</v>
+        <v>0.9999299323274566</v>
       </c>
       <c r="T10">
-        <v>0.9999981912516125</v>
+        <v>0.9999750867019289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998689146671162</v>
+        <v>0.9998181162221488</v>
       </c>
       <c r="D11">
-        <v>1.000032769204765</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="E11">
-        <v>1.000032769204765</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="F11">
-        <v>0.9998689146671162</v>
+        <v>0.9998181162221488</v>
       </c>
       <c r="G11">
-        <v>1.000087387853323</v>
+        <v>1.00012125422771</v>
       </c>
       <c r="H11">
-        <v>0.9999279023975984</v>
+        <v>0.9998999648792914</v>
       </c>
       <c r="I11">
-        <v>1.000032769204765</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="J11">
-        <v>1.000032769204765</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="K11">
-        <v>1.000032769204765</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="L11">
-        <v>1.000032769204765</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="M11">
-        <v>0.9999508419359404</v>
+        <v>0.9999317937257826</v>
       </c>
       <c r="N11">
-        <v>0.9999508419359404</v>
+        <v>0.9999317937257826</v>
       </c>
       <c r="O11">
-        <v>0.9999431954231598</v>
+        <v>0.9999211841102854</v>
       </c>
       <c r="P11">
-        <v>0.9999781510255484</v>
+        <v>0.9999696862269939</v>
       </c>
       <c r="Q11">
-        <v>0.9999781510255484</v>
+        <v>0.9999696862269939</v>
       </c>
       <c r="R11">
-        <v>0.9999918055703525</v>
+        <v>0.9999886324775995</v>
       </c>
       <c r="S11">
-        <v>0.9999918055703525</v>
+        <v>0.9999886324775995</v>
       </c>
       <c r="T11">
-        <v>0.9999970854220552</v>
+        <v>0.9999959581695665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001179912910884</v>
+        <v>0.9999146244211757</v>
       </c>
       <c r="D12">
-        <v>0.9997050280197765</v>
+        <v>1.000021343984833</v>
       </c>
       <c r="E12">
-        <v>0.9997050280197765</v>
+        <v>1.000021343984833</v>
       </c>
       <c r="F12">
-        <v>1.001179912910884</v>
+        <v>0.9999146244211757</v>
       </c>
       <c r="G12">
-        <v>0.9992133912421399</v>
+        <v>1.000056915357742</v>
       </c>
       <c r="H12">
-        <v>1.000648947208944</v>
+        <v>0.9999530441995385</v>
       </c>
       <c r="I12">
-        <v>0.9997050280197765</v>
+        <v>1.000021343984833</v>
       </c>
       <c r="J12">
-        <v>0.9997050280197765</v>
+        <v>1.000021343984833</v>
       </c>
       <c r="K12">
-        <v>0.9997050280197765</v>
+        <v>1.000021343984833</v>
       </c>
       <c r="L12">
-        <v>0.9997050280197765</v>
+        <v>1.000021343984833</v>
       </c>
       <c r="M12">
-        <v>1.00044247046533</v>
+        <v>0.9999679842030045</v>
       </c>
       <c r="N12">
-        <v>1.00044247046533</v>
+        <v>0.9999679842030045</v>
       </c>
       <c r="O12">
-        <v>1.000511296046535</v>
+        <v>0.9999630042018491</v>
       </c>
       <c r="P12">
-        <v>1.000196656316812</v>
+        <v>0.9999857707969474</v>
       </c>
       <c r="Q12">
-        <v>1.000196656316812</v>
+        <v>0.9999857707969474</v>
       </c>
       <c r="R12">
-        <v>1.000073749242553</v>
+        <v>0.9999946640939188</v>
       </c>
       <c r="S12">
-        <v>1.000073749242553</v>
+        <v>0.9999946640939188</v>
       </c>
       <c r="T12">
-        <v>1.000026222570216</v>
+        <v>0.9999981026554926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000304270852529</v>
+        <v>0.9997246567922953</v>
       </c>
       <c r="D13">
-        <v>0.9999239295944984</v>
+        <v>1.000068832012019</v>
       </c>
       <c r="E13">
-        <v>0.9999239295944984</v>
+        <v>1.000068832012019</v>
       </c>
       <c r="F13">
-        <v>1.000304270852529</v>
+        <v>0.9997246567922953</v>
       </c>
       <c r="G13">
-        <v>0.999797155745701</v>
+        <v>1.000183560368883</v>
       </c>
       <c r="H13">
-        <v>1.0001673502904</v>
+        <v>0.9998485633046695</v>
       </c>
       <c r="I13">
-        <v>0.9999239295944984</v>
+        <v>1.000068832012019</v>
       </c>
       <c r="J13">
-        <v>0.9999239295944984</v>
+        <v>1.000068832012019</v>
       </c>
       <c r="K13">
-        <v>0.9999239295944984</v>
+        <v>1.000068832012019</v>
       </c>
       <c r="L13">
-        <v>0.9999239295944984</v>
+        <v>1.000068832012019</v>
       </c>
       <c r="M13">
-        <v>1.000114100223514</v>
+        <v>0.9998967444021571</v>
       </c>
       <c r="N13">
-        <v>1.000114100223514</v>
+        <v>0.9998967444021571</v>
       </c>
       <c r="O13">
-        <v>1.000131850245809</v>
+        <v>0.999880684036328</v>
       </c>
       <c r="P13">
-        <v>1.000050710013842</v>
+        <v>0.9999541069387777</v>
       </c>
       <c r="Q13">
-        <v>1.000050710013842</v>
+        <v>0.9999541069387777</v>
       </c>
       <c r="R13">
-        <v>1.000019014909006</v>
+        <v>0.9999827882070881</v>
       </c>
       <c r="S13">
-        <v>1.000019014909006</v>
+        <v>0.9999827882070881</v>
       </c>
       <c r="T13">
-        <v>1.000006760945354</v>
+        <v>0.9999938794169841</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.003468659585671</v>
+        <v>0.9995369430833174</v>
       </c>
       <c r="D14">
-        <v>0.9991328313354622</v>
+        <v>1.000115760453542</v>
       </c>
       <c r="E14">
-        <v>0.9991328313354622</v>
+        <v>1.000115760453542</v>
       </c>
       <c r="F14">
-        <v>1.003468659585671</v>
+        <v>0.9995369430833174</v>
       </c>
       <c r="G14">
-        <v>0.9976875647952085</v>
+        <v>1.000308698976912</v>
       </c>
       <c r="H14">
-        <v>1.001907759690433</v>
+        <v>0.999745323239581</v>
       </c>
       <c r="I14">
-        <v>0.9991328313354622</v>
+        <v>1.000115760453542</v>
       </c>
       <c r="J14">
-        <v>0.9991328313354622</v>
+        <v>1.000115760453542</v>
       </c>
       <c r="K14">
-        <v>0.9991328313354622</v>
+        <v>1.000115760453542</v>
       </c>
       <c r="L14">
-        <v>0.9991328313354622</v>
+        <v>1.000115760453542</v>
       </c>
       <c r="M14">
-        <v>1.001300745460566</v>
+        <v>0.9998263517684297</v>
       </c>
       <c r="N14">
-        <v>1.001300745460566</v>
+        <v>0.9998263517684297</v>
       </c>
       <c r="O14">
-        <v>1.001503083537189</v>
+        <v>0.9997993422588135</v>
       </c>
       <c r="P14">
-        <v>1.000578107418865</v>
+        <v>0.9999228213301338</v>
       </c>
       <c r="Q14">
-        <v>1.000578107418865</v>
+        <v>0.9999228213301338</v>
       </c>
       <c r="R14">
-        <v>1.000216788398014</v>
+        <v>0.9999710561109858</v>
       </c>
       <c r="S14">
-        <v>1.000216788398014</v>
+        <v>0.9999710561109858</v>
       </c>
       <c r="T14">
-        <v>1.000077079679617</v>
+        <v>0.9999897077767392</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000914067258839</v>
+        <v>0.9998338294018013</v>
       </c>
       <c r="D15">
-        <v>0.9997714811504449</v>
+        <v>1.000041542384966</v>
       </c>
       <c r="E15">
-        <v>0.9997714811504449</v>
+        <v>1.000041542384966</v>
       </c>
       <c r="F15">
-        <v>1.000914067258839</v>
+        <v>0.9998338294018013</v>
       </c>
       <c r="G15">
-        <v>0.999390627392853</v>
+        <v>1.000110778348945</v>
       </c>
       <c r="H15">
-        <v>1.000502746216755</v>
+        <v>0.9999086070475278</v>
       </c>
       <c r="I15">
-        <v>0.9997714811504449</v>
+        <v>1.000041542384966</v>
       </c>
       <c r="J15">
-        <v>0.9997714811504449</v>
+        <v>1.000041542384966</v>
       </c>
       <c r="K15">
-        <v>0.9997714811504449</v>
+        <v>1.000041542384966</v>
       </c>
       <c r="L15">
-        <v>0.9997714811504449</v>
+        <v>1.000041542384966</v>
       </c>
       <c r="M15">
-        <v>1.000342774204642</v>
+        <v>0.9999376858933837</v>
       </c>
       <c r="N15">
-        <v>1.000342774204642</v>
+        <v>0.9999376858933837</v>
       </c>
       <c r="O15">
-        <v>1.000396098208679</v>
+        <v>0.9999279929447651</v>
       </c>
       <c r="P15">
-        <v>1.000152343186576</v>
+        <v>0.9999723047239112</v>
       </c>
       <c r="Q15">
-        <v>1.000152343186576</v>
+        <v>0.9999723047239112</v>
       </c>
       <c r="R15">
-        <v>1.000057127677543</v>
+        <v>0.999989614139175</v>
       </c>
       <c r="S15">
-        <v>1.000057127677543</v>
+        <v>0.999989614139175</v>
       </c>
       <c r="T15">
-        <v>1.000020314053297</v>
+        <v>0.9999963069921955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.996759231071271</v>
+        <v>0.9996792108190689</v>
       </c>
       <c r="D16">
-        <v>1.000810196049184</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="E16">
-        <v>1.000810196049184</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="F16">
-        <v>0.996759231071271</v>
+        <v>0.9996792108190689</v>
       </c>
       <c r="G16">
-        <v>1.00216050692219</v>
+        <v>1.000213856818168</v>
       </c>
       <c r="H16">
-        <v>0.9982175762380466</v>
+        <v>0.9998235669390027</v>
       </c>
       <c r="I16">
-        <v>1.000810196049184</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="J16">
-        <v>1.000810196049184</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="K16">
-        <v>1.000810196049184</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="L16">
-        <v>1.000810196049184</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="M16">
-        <v>0.9987847135602272</v>
+        <v>0.9998797038956052</v>
       </c>
       <c r="N16">
-        <v>0.9987847135602272</v>
+        <v>0.9998797038956052</v>
       </c>
       <c r="O16">
-        <v>0.998595667786167</v>
+        <v>0.9998609915767377</v>
       </c>
       <c r="P16">
-        <v>0.9994598743898794</v>
+        <v>0.9999465349211173</v>
       </c>
       <c r="Q16">
-        <v>0.9994598743898794</v>
+        <v>0.9999465349211173</v>
       </c>
       <c r="R16">
-        <v>0.9997974548047054</v>
+        <v>0.9999799504338733</v>
       </c>
       <c r="S16">
-        <v>0.9997974548047054</v>
+        <v>0.9999799504338733</v>
       </c>
       <c r="T16">
-        <v>0.999927983729843</v>
+        <v>0.999992870915444</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9973492772876748</v>
+        <v>0.9993852483670057</v>
       </c>
       <c r="D17">
-        <v>1.000662682870825</v>
+        <v>1.000153687088456</v>
       </c>
       <c r="E17">
-        <v>1.000662682870825</v>
+        <v>1.000153687088456</v>
       </c>
       <c r="F17">
-        <v>0.9973492772876748</v>
+        <v>0.9993852483670057</v>
       </c>
       <c r="G17">
-        <v>1.001767144872702</v>
+        <v>1.00040983087638</v>
       </c>
       <c r="H17">
-        <v>0.9985421021012982</v>
+        <v>0.9996618886280433</v>
       </c>
       <c r="I17">
-        <v>1.000662682870825</v>
+        <v>1.000153687088456</v>
       </c>
       <c r="J17">
-        <v>1.000662682870825</v>
+        <v>1.000153687088456</v>
       </c>
       <c r="K17">
-        <v>1.000662682870825</v>
+        <v>1.000153687088456</v>
       </c>
       <c r="L17">
-        <v>1.000662682870825</v>
+        <v>1.000153687088456</v>
       </c>
       <c r="M17">
-        <v>0.9990059800792497</v>
+        <v>0.9997694677277307</v>
       </c>
       <c r="N17">
-        <v>0.9990059800792497</v>
+        <v>0.9997694677277307</v>
       </c>
       <c r="O17">
-        <v>0.9988513540865992</v>
+        <v>0.9997336080278348</v>
       </c>
       <c r="P17">
-        <v>0.9995582143431081</v>
+        <v>0.9998975408479723</v>
       </c>
       <c r="Q17">
-        <v>0.9995582143431081</v>
+        <v>0.9998975408479723</v>
       </c>
       <c r="R17">
-        <v>0.9998343314750373</v>
+        <v>0.9999615774080931</v>
       </c>
       <c r="S17">
-        <v>0.9998343314750373</v>
+        <v>0.9999615774080931</v>
       </c>
       <c r="T17">
-        <v>0.9999410954790249</v>
+        <v>0.9999863381894659</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9985380041173821</v>
+        <v>0.9990983566726137</v>
       </c>
       <c r="D18">
-        <v>1.000365495068194</v>
+        <v>1.000225410929584</v>
       </c>
       <c r="E18">
-        <v>1.000365495068194</v>
+        <v>1.000225410929584</v>
       </c>
       <c r="F18">
-        <v>0.9985380041173821</v>
+        <v>0.9990983566726137</v>
       </c>
       <c r="G18">
-        <v>1.000974663415806</v>
+        <v>1.000601087844341</v>
       </c>
       <c r="H18">
-        <v>0.9991959026782422</v>
+        <v>0.9995040928412798</v>
       </c>
       <c r="I18">
-        <v>1.000365495068194</v>
+        <v>1.000225410929584</v>
       </c>
       <c r="J18">
-        <v>1.000365495068194</v>
+        <v>1.000225410929584</v>
       </c>
       <c r="K18">
-        <v>1.000365495068194</v>
+        <v>1.000225410929584</v>
       </c>
       <c r="L18">
-        <v>1.000365495068194</v>
+        <v>1.000225410929584</v>
       </c>
       <c r="M18">
-        <v>0.9994517495927883</v>
+        <v>0.999661883801099</v>
       </c>
       <c r="N18">
-        <v>0.9994517495927883</v>
+        <v>0.999661883801099</v>
       </c>
       <c r="O18">
-        <v>0.9993664672879395</v>
+        <v>0.9996092868144926</v>
       </c>
       <c r="P18">
-        <v>0.9997563314179235</v>
+        <v>0.9998497261772608</v>
       </c>
       <c r="Q18">
-        <v>0.9997563314179235</v>
+        <v>0.9998497261772608</v>
       </c>
       <c r="R18">
-        <v>0.9999086223304913</v>
+        <v>0.9999436473653416</v>
       </c>
       <c r="S18">
-        <v>0.9999086223304913</v>
+        <v>0.9999436473653416</v>
       </c>
       <c r="T18">
-        <v>0.9999675092360022</v>
+        <v>0.9999799616911645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9983975772126924</v>
+        <v>0.9999887632774009</v>
       </c>
       <c r="D19">
-        <v>1.000400603707569</v>
+        <v>1.000002809197956</v>
       </c>
       <c r="E19">
-        <v>1.000400603707569</v>
+        <v>1.000002809197956</v>
       </c>
       <c r="F19">
-        <v>0.9983975772126924</v>
+        <v>0.9999887632774009</v>
       </c>
       <c r="G19">
-        <v>1.001068278640711</v>
+        <v>1.000007489523538</v>
       </c>
       <c r="H19">
-        <v>0.9991186698809448</v>
+        <v>0.9999938205776262</v>
       </c>
       <c r="I19">
-        <v>1.000400603707569</v>
+        <v>1.000002809197956</v>
       </c>
       <c r="J19">
-        <v>1.000400603707569</v>
+        <v>1.000002809197956</v>
       </c>
       <c r="K19">
-        <v>1.000400603707569</v>
+        <v>1.000002809197956</v>
       </c>
       <c r="L19">
-        <v>1.000400603707569</v>
+        <v>1.000002809197956</v>
       </c>
       <c r="M19">
-        <v>0.9993990904601306</v>
+        <v>0.9999957862376784</v>
       </c>
       <c r="N19">
-        <v>0.9993990904601306</v>
+        <v>0.9999957862376784</v>
       </c>
       <c r="O19">
-        <v>0.9993056169337353</v>
+        <v>0.9999951310176609</v>
       </c>
       <c r="P19">
-        <v>0.9997329282092767</v>
+        <v>0.9999981272244375</v>
       </c>
       <c r="Q19">
-        <v>0.9997329282092767</v>
+        <v>0.9999981272244375</v>
       </c>
       <c r="R19">
-        <v>0.9998998470838498</v>
+        <v>0.9999992977178171</v>
       </c>
       <c r="S19">
-        <v>0.9998998470838498</v>
+        <v>0.9999992977178171</v>
       </c>
       <c r="T19">
-        <v>0.9999643894761757</v>
+        <v>0.9999997501620722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999993120575539</v>
+        <v>0.9999723579557037</v>
       </c>
       <c r="D20">
-        <v>1.000000171758176</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="E20">
-        <v>1.000000171758176</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="F20">
-        <v>0.9999993120575539</v>
+        <v>0.9999723579557037</v>
       </c>
       <c r="G20">
-        <v>1.000000456957074</v>
+        <v>1.000018426751316</v>
       </c>
       <c r="H20">
-        <v>0.9999996225261597</v>
+        <v>0.9999847977954885</v>
       </c>
       <c r="I20">
-        <v>1.000000171758176</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="J20">
-        <v>1.000000171758176</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="K20">
-        <v>1.000000171758176</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="L20">
-        <v>1.000000171758176</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="M20">
-        <v>0.999999741907865</v>
+        <v>0.9999896342561927</v>
       </c>
       <c r="N20">
-        <v>0.999999741907865</v>
+        <v>0.9999896342561927</v>
       </c>
       <c r="O20">
-        <v>0.9999997021139633</v>
+        <v>0.9999880221026247</v>
       </c>
       <c r="P20">
-        <v>0.999999885191302</v>
+        <v>0.9999953930230223</v>
       </c>
       <c r="Q20">
-        <v>0.999999885191302</v>
+        <v>0.9999953930230223</v>
       </c>
       <c r="R20">
-        <v>0.9999999568330206</v>
+        <v>0.9999982724064371</v>
       </c>
       <c r="S20">
-        <v>0.9999999568330206</v>
+        <v>0.9999982724064371</v>
       </c>
       <c r="T20">
-        <v>0.9999999844692194</v>
+        <v>0.9999993856954256</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999854663324844</v>
+        <v>0.999962973868771</v>
       </c>
       <c r="D21">
-        <v>1.000003633233061</v>
+        <v>1.000009256757541</v>
       </c>
       <c r="E21">
-        <v>1.000003633233061</v>
+        <v>1.000009256757541</v>
       </c>
       <c r="F21">
-        <v>0.9999854663324844</v>
+        <v>0.999962973868771</v>
       </c>
       <c r="G21">
-        <v>1.000009687114081</v>
+        <v>1.000024683116354</v>
       </c>
       <c r="H21">
-        <v>0.9999920074323341</v>
+        <v>0.9999796363602951</v>
       </c>
       <c r="I21">
-        <v>1.000003633233061</v>
+        <v>1.000009256757541</v>
       </c>
       <c r="J21">
-        <v>1.000003633233061</v>
+        <v>1.000009256757541</v>
       </c>
       <c r="K21">
-        <v>1.000003633233061</v>
+        <v>1.000009256757541</v>
       </c>
       <c r="L21">
-        <v>1.000003633233061</v>
+        <v>1.000009256757541</v>
       </c>
       <c r="M21">
-        <v>0.9999945497827729</v>
+        <v>0.9999861153131561</v>
       </c>
       <c r="N21">
-        <v>0.9999945497827729</v>
+        <v>0.9999861153131561</v>
       </c>
       <c r="O21">
-        <v>0.9999937023326266</v>
+        <v>0.9999839556622024</v>
       </c>
       <c r="P21">
-        <v>0.9999975775995358</v>
+        <v>0.9999938291279511</v>
       </c>
       <c r="Q21">
-        <v>0.9999975775995358</v>
+        <v>0.9999938291279511</v>
       </c>
       <c r="R21">
-        <v>0.9999990915079171</v>
+        <v>0.9999976860353486</v>
       </c>
       <c r="S21">
-        <v>0.9999990915079171</v>
+        <v>0.9999976860353486</v>
       </c>
       <c r="T21">
-        <v>0.9999996767630139</v>
+        <v>0.9999991772696738</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999488371896739</v>
+        <v>0.9999186379145119</v>
       </c>
       <c r="D22">
-        <v>1.00001278762057</v>
+        <v>1.000020339603811</v>
       </c>
       <c r="E22">
-        <v>1.00001278762057</v>
+        <v>1.000020339603811</v>
       </c>
       <c r="F22">
-        <v>0.9999488371896739</v>
+        <v>0.9999186379145119</v>
       </c>
       <c r="G22">
-        <v>1.00003410667459</v>
+        <v>1.000054239591022</v>
       </c>
       <c r="H22">
-        <v>0.9999718608593138</v>
+        <v>0.999955251192706</v>
       </c>
       <c r="I22">
-        <v>1.00001278762057</v>
+        <v>1.000020339603811</v>
       </c>
       <c r="J22">
-        <v>1.00001278762057</v>
+        <v>1.000020339603811</v>
       </c>
       <c r="K22">
-        <v>1.00001278762057</v>
+        <v>1.000020339603811</v>
       </c>
       <c r="L22">
-        <v>1.00001278762057</v>
+        <v>1.000020339603811</v>
       </c>
       <c r="M22">
-        <v>0.9999808124051222</v>
+        <v>0.9999694887591617</v>
       </c>
       <c r="N22">
-        <v>0.9999808124051222</v>
+        <v>0.9999694887591617</v>
       </c>
       <c r="O22">
-        <v>0.9999778285565194</v>
+        <v>0.9999647429036765</v>
       </c>
       <c r="P22">
-        <v>0.9999914708102716</v>
+        <v>0.9999864390407116</v>
       </c>
       <c r="Q22">
-        <v>0.9999914708102716</v>
+        <v>0.9999864390407116</v>
       </c>
       <c r="R22">
-        <v>0.9999968000128463</v>
+        <v>0.9999949141814866</v>
       </c>
       <c r="S22">
-        <v>0.9999968000128463</v>
+        <v>0.9999949141814866</v>
       </c>
       <c r="T22">
-        <v>0.9999988612642149</v>
+        <v>0.9999981912516125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9998689146671162</v>
+      </c>
+      <c r="D23">
+        <v>1.000032769204765</v>
+      </c>
+      <c r="E23">
+        <v>1.000032769204765</v>
+      </c>
+      <c r="F23">
+        <v>0.9998689146671162</v>
+      </c>
+      <c r="G23">
+        <v>1.000087387853323</v>
+      </c>
+      <c r="H23">
+        <v>0.9999279023975984</v>
+      </c>
+      <c r="I23">
+        <v>1.000032769204765</v>
+      </c>
+      <c r="J23">
+        <v>1.000032769204765</v>
+      </c>
+      <c r="K23">
+        <v>1.000032769204765</v>
+      </c>
+      <c r="L23">
+        <v>1.000032769204765</v>
+      </c>
+      <c r="M23">
+        <v>0.9999508419359404</v>
+      </c>
+      <c r="N23">
+        <v>0.9999508419359404</v>
+      </c>
+      <c r="O23">
+        <v>0.9999431954231598</v>
+      </c>
+      <c r="P23">
+        <v>0.9999781510255484</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999781510255484</v>
+      </c>
+      <c r="R23">
+        <v>0.9999918055703525</v>
+      </c>
+      <c r="S23">
+        <v>0.9999918055703525</v>
+      </c>
+      <c r="T23">
+        <v>0.9999970854220552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001179912910884</v>
+      </c>
+      <c r="D24">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="E24">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="F24">
+        <v>1.001179912910884</v>
+      </c>
+      <c r="G24">
+        <v>0.9992133912421399</v>
+      </c>
+      <c r="H24">
+        <v>1.000648947208944</v>
+      </c>
+      <c r="I24">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="J24">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="K24">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="L24">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="M24">
+        <v>1.00044247046533</v>
+      </c>
+      <c r="N24">
+        <v>1.00044247046533</v>
+      </c>
+      <c r="O24">
+        <v>1.000511296046535</v>
+      </c>
+      <c r="P24">
+        <v>1.000196656316812</v>
+      </c>
+      <c r="Q24">
+        <v>1.000196656316812</v>
+      </c>
+      <c r="R24">
+        <v>1.000073749242553</v>
+      </c>
+      <c r="S24">
+        <v>1.000073749242553</v>
+      </c>
+      <c r="T24">
+        <v>1.000026222570216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000304270852529</v>
+      </c>
+      <c r="D25">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="E25">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="F25">
+        <v>1.000304270852529</v>
+      </c>
+      <c r="G25">
+        <v>0.999797155745701</v>
+      </c>
+      <c r="H25">
+        <v>1.0001673502904</v>
+      </c>
+      <c r="I25">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="J25">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="K25">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="L25">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="M25">
+        <v>1.000114100223514</v>
+      </c>
+      <c r="N25">
+        <v>1.000114100223514</v>
+      </c>
+      <c r="O25">
+        <v>1.000131850245809</v>
+      </c>
+      <c r="P25">
+        <v>1.000050710013842</v>
+      </c>
+      <c r="Q25">
+        <v>1.000050710013842</v>
+      </c>
+      <c r="R25">
+        <v>1.000019014909006</v>
+      </c>
+      <c r="S25">
+        <v>1.000019014909006</v>
+      </c>
+      <c r="T25">
+        <v>1.000006760945354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.003468659585671</v>
+      </c>
+      <c r="D26">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="E26">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="F26">
+        <v>1.003468659585671</v>
+      </c>
+      <c r="G26">
+        <v>0.9976875647952085</v>
+      </c>
+      <c r="H26">
+        <v>1.001907759690433</v>
+      </c>
+      <c r="I26">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="J26">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="K26">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="L26">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="M26">
+        <v>1.001300745460566</v>
+      </c>
+      <c r="N26">
+        <v>1.001300745460566</v>
+      </c>
+      <c r="O26">
+        <v>1.001503083537189</v>
+      </c>
+      <c r="P26">
+        <v>1.000578107418865</v>
+      </c>
+      <c r="Q26">
+        <v>1.000578107418865</v>
+      </c>
+      <c r="R26">
+        <v>1.000216788398014</v>
+      </c>
+      <c r="S26">
+        <v>1.000216788398014</v>
+      </c>
+      <c r="T26">
+        <v>1.000077079679617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000914067258839</v>
+      </c>
+      <c r="D27">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="E27">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="F27">
+        <v>1.000914067258839</v>
+      </c>
+      <c r="G27">
+        <v>0.999390627392853</v>
+      </c>
+      <c r="H27">
+        <v>1.000502746216755</v>
+      </c>
+      <c r="I27">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="J27">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="K27">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="L27">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="M27">
+        <v>1.000342774204642</v>
+      </c>
+      <c r="N27">
+        <v>1.000342774204642</v>
+      </c>
+      <c r="O27">
+        <v>1.000396098208679</v>
+      </c>
+      <c r="P27">
+        <v>1.000152343186576</v>
+      </c>
+      <c r="Q27">
+        <v>1.000152343186576</v>
+      </c>
+      <c r="R27">
+        <v>1.000057127677543</v>
+      </c>
+      <c r="S27">
+        <v>1.000057127677543</v>
+      </c>
+      <c r="T27">
+        <v>1.000020314053297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.996759231071271</v>
+      </c>
+      <c r="D28">
+        <v>1.000810196049184</v>
+      </c>
+      <c r="E28">
+        <v>1.000810196049184</v>
+      </c>
+      <c r="F28">
+        <v>0.996759231071271</v>
+      </c>
+      <c r="G28">
+        <v>1.00216050692219</v>
+      </c>
+      <c r="H28">
+        <v>0.9982175762380466</v>
+      </c>
+      <c r="I28">
+        <v>1.000810196049184</v>
+      </c>
+      <c r="J28">
+        <v>1.000810196049184</v>
+      </c>
+      <c r="K28">
+        <v>1.000810196049184</v>
+      </c>
+      <c r="L28">
+        <v>1.000810196049184</v>
+      </c>
+      <c r="M28">
+        <v>0.9987847135602272</v>
+      </c>
+      <c r="N28">
+        <v>0.9987847135602272</v>
+      </c>
+      <c r="O28">
+        <v>0.998595667786167</v>
+      </c>
+      <c r="P28">
+        <v>0.9994598743898794</v>
+      </c>
+      <c r="Q28">
+        <v>0.9994598743898794</v>
+      </c>
+      <c r="R28">
+        <v>0.9997974548047054</v>
+      </c>
+      <c r="S28">
+        <v>0.9997974548047054</v>
+      </c>
+      <c r="T28">
+        <v>0.999927983729843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9973492772876748</v>
+      </c>
+      <c r="D29">
+        <v>1.000662682870825</v>
+      </c>
+      <c r="E29">
+        <v>1.000662682870825</v>
+      </c>
+      <c r="F29">
+        <v>0.9973492772876748</v>
+      </c>
+      <c r="G29">
+        <v>1.001767144872702</v>
+      </c>
+      <c r="H29">
+        <v>0.9985421021012982</v>
+      </c>
+      <c r="I29">
+        <v>1.000662682870825</v>
+      </c>
+      <c r="J29">
+        <v>1.000662682870825</v>
+      </c>
+      <c r="K29">
+        <v>1.000662682870825</v>
+      </c>
+      <c r="L29">
+        <v>1.000662682870825</v>
+      </c>
+      <c r="M29">
+        <v>0.9990059800792497</v>
+      </c>
+      <c r="N29">
+        <v>0.9990059800792497</v>
+      </c>
+      <c r="O29">
+        <v>0.9988513540865992</v>
+      </c>
+      <c r="P29">
+        <v>0.9995582143431081</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995582143431081</v>
+      </c>
+      <c r="R29">
+        <v>0.9998343314750373</v>
+      </c>
+      <c r="S29">
+        <v>0.9998343314750373</v>
+      </c>
+      <c r="T29">
+        <v>0.9999410954790249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9985380041173821</v>
+      </c>
+      <c r="D30">
+        <v>1.000365495068194</v>
+      </c>
+      <c r="E30">
+        <v>1.000365495068194</v>
+      </c>
+      <c r="F30">
+        <v>0.9985380041173821</v>
+      </c>
+      <c r="G30">
+        <v>1.000974663415806</v>
+      </c>
+      <c r="H30">
+        <v>0.9991959026782422</v>
+      </c>
+      <c r="I30">
+        <v>1.000365495068194</v>
+      </c>
+      <c r="J30">
+        <v>1.000365495068194</v>
+      </c>
+      <c r="K30">
+        <v>1.000365495068194</v>
+      </c>
+      <c r="L30">
+        <v>1.000365495068194</v>
+      </c>
+      <c r="M30">
+        <v>0.9994517495927883</v>
+      </c>
+      <c r="N30">
+        <v>0.9994517495927883</v>
+      </c>
+      <c r="O30">
+        <v>0.9993664672879395</v>
+      </c>
+      <c r="P30">
+        <v>0.9997563314179235</v>
+      </c>
+      <c r="Q30">
+        <v>0.9997563314179235</v>
+      </c>
+      <c r="R30">
+        <v>0.9999086223304913</v>
+      </c>
+      <c r="S30">
+        <v>0.9999086223304913</v>
+      </c>
+      <c r="T30">
+        <v>0.9999675092360022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9983975772126924</v>
+      </c>
+      <c r="D31">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="E31">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="F31">
+        <v>0.9983975772126924</v>
+      </c>
+      <c r="G31">
+        <v>1.001068278640711</v>
+      </c>
+      <c r="H31">
+        <v>0.9991186698809448</v>
+      </c>
+      <c r="I31">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="J31">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="K31">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="L31">
+        <v>1.000400603707569</v>
+      </c>
+      <c r="M31">
+        <v>0.9993990904601306</v>
+      </c>
+      <c r="N31">
+        <v>0.9993990904601306</v>
+      </c>
+      <c r="O31">
+        <v>0.9993056169337353</v>
+      </c>
+      <c r="P31">
+        <v>0.9997329282092767</v>
+      </c>
+      <c r="Q31">
+        <v>0.9997329282092767</v>
+      </c>
+      <c r="R31">
+        <v>0.9998998470838498</v>
+      </c>
+      <c r="S31">
+        <v>0.9998998470838498</v>
+      </c>
+      <c r="T31">
+        <v>0.9999643894761757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9962192394520544</v>
+      </c>
+      <c r="D32">
+        <v>1.000945195616438</v>
+      </c>
+      <c r="E32">
+        <v>1.000945195616438</v>
+      </c>
+      <c r="F32">
+        <v>0.9962192394520544</v>
+      </c>
+      <c r="G32">
+        <v>1.002520499726028</v>
+      </c>
+      <c r="H32">
+        <v>0.9979205797260277</v>
+      </c>
+      <c r="I32">
+        <v>1.000945195616438</v>
+      </c>
+      <c r="J32">
+        <v>1.000945195616438</v>
+      </c>
+      <c r="K32">
+        <v>1.000945195616438</v>
+      </c>
+      <c r="L32">
+        <v>1.000945195616438</v>
+      </c>
+      <c r="M32">
+        <v>0.9985822175342461</v>
+      </c>
+      <c r="N32">
+        <v>0.9985822175342461</v>
+      </c>
+      <c r="O32">
+        <v>0.9983616715981732</v>
+      </c>
+      <c r="P32">
+        <v>0.9993698768949768</v>
+      </c>
+      <c r="Q32">
+        <v>0.9993698768949768</v>
+      </c>
+      <c r="R32">
+        <v>0.9997637065753421</v>
+      </c>
+      <c r="S32">
+        <v>0.9997637065753421</v>
+      </c>
+      <c r="T32">
+        <v>0.9999159842922373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9996722636842105</v>
+      </c>
+      <c r="D33">
+        <v>1.000081920526316</v>
+      </c>
+      <c r="E33">
+        <v>1.000081920526316</v>
+      </c>
+      <c r="F33">
+        <v>0.9996722636842105</v>
+      </c>
+      <c r="G33">
+        <v>1.000218491578947</v>
+      </c>
+      <c r="H33">
+        <v>0.9998197484210527</v>
+      </c>
+      <c r="I33">
+        <v>1.000081920526316</v>
+      </c>
+      <c r="J33">
+        <v>1.000081920526316</v>
+      </c>
+      <c r="K33">
+        <v>1.000081920526316</v>
+      </c>
+      <c r="L33">
+        <v>1.000081920526316</v>
+      </c>
+      <c r="M33">
+        <v>0.9998770921052631</v>
+      </c>
+      <c r="N33">
+        <v>0.9998770921052631</v>
+      </c>
+      <c r="O33">
+        <v>0.9998579775438596</v>
+      </c>
+      <c r="P33">
+        <v>0.9999453682456139</v>
+      </c>
+      <c r="Q33">
+        <v>0.9999453682456139</v>
+      </c>
+      <c r="R33">
+        <v>0.9999795063157892</v>
+      </c>
+      <c r="S33">
+        <v>0.9999795063157892</v>
+      </c>
+      <c r="T33">
+        <v>0.9999927108771929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.998305462631579</v>
+      </c>
+      <c r="D34">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="E34">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="F34">
+        <v>0.998305462631579</v>
+      </c>
+      <c r="G34">
+        <v>1.001129694736842</v>
+      </c>
+      <c r="H34">
+        <v>0.9990680010526315</v>
+      </c>
+      <c r="I34">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="J34">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="K34">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="L34">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="M34">
+        <v>0.9993645473684212</v>
+      </c>
+      <c r="N34">
+        <v>0.9993645473684212</v>
+      </c>
+      <c r="O34">
+        <v>0.9992656985964913</v>
+      </c>
+      <c r="P34">
+        <v>0.9997175756140352</v>
+      </c>
+      <c r="Q34">
+        <v>0.9997175756140352</v>
+      </c>
+      <c r="R34">
+        <v>0.9998940897368422</v>
+      </c>
+      <c r="S34">
+        <v>0.9998940897368422</v>
+      </c>
+      <c r="T34">
+        <v>0.9999623424561405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9941674468009005</v>
+      </c>
+      <c r="D35">
+        <v>1.001458115150734</v>
+      </c>
+      <c r="E35">
+        <v>1.001458115150734</v>
+      </c>
+      <c r="F35">
+        <v>0.9941674468009005</v>
+      </c>
+      <c r="G35">
+        <v>1.003888375900058</v>
+      </c>
+      <c r="H35">
+        <v>0.9967920954453524</v>
+      </c>
+      <c r="I35">
+        <v>1.001458115150734</v>
+      </c>
+      <c r="J35">
+        <v>1.001458115150734</v>
+      </c>
+      <c r="K35">
+        <v>1.001458115150734</v>
+      </c>
+      <c r="L35">
+        <v>1.001458115150734</v>
+      </c>
+      <c r="M35">
+        <v>0.9978127809758174</v>
+      </c>
+      <c r="N35">
+        <v>0.9978127809758174</v>
+      </c>
+      <c r="O35">
+        <v>0.9974725524656624</v>
+      </c>
+      <c r="P35">
+        <v>0.9990278923674563</v>
+      </c>
+      <c r="Q35">
+        <v>0.9990278923674563</v>
+      </c>
+      <c r="R35">
+        <v>0.9996354480632758</v>
+      </c>
+      <c r="S35">
+        <v>0.9996354480632758</v>
+      </c>
+      <c r="T35">
+        <v>0.9998703772664189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999993120575539</v>
+      </c>
+      <c r="D36">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="E36">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="F36">
+        <v>0.9999993120575539</v>
+      </c>
+      <c r="G36">
+        <v>1.000000456957074</v>
+      </c>
+      <c r="H36">
+        <v>0.9999996225261597</v>
+      </c>
+      <c r="I36">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="J36">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="K36">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="L36">
+        <v>1.000000171758176</v>
+      </c>
+      <c r="M36">
+        <v>0.999999741907865</v>
+      </c>
+      <c r="N36">
+        <v>0.999999741907865</v>
+      </c>
+      <c r="O36">
+        <v>0.9999997021139633</v>
+      </c>
+      <c r="P36">
+        <v>0.999999885191302</v>
+      </c>
+      <c r="Q36">
+        <v>0.999999885191302</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999568330206</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999568330206</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999844692194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999854663324844</v>
+      </c>
+      <c r="D37">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="E37">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="F37">
+        <v>0.9999854663324844</v>
+      </c>
+      <c r="G37">
+        <v>1.000009687114081</v>
+      </c>
+      <c r="H37">
+        <v>0.9999920074323341</v>
+      </c>
+      <c r="I37">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="J37">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="K37">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="L37">
+        <v>1.000003633233061</v>
+      </c>
+      <c r="M37">
+        <v>0.9999945497827729</v>
+      </c>
+      <c r="N37">
+        <v>0.9999945497827729</v>
+      </c>
+      <c r="O37">
+        <v>0.9999937023326266</v>
+      </c>
+      <c r="P37">
+        <v>0.9999975775995358</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999975775995358</v>
+      </c>
+      <c r="R37">
+        <v>0.9999990915079171</v>
+      </c>
+      <c r="S37">
+        <v>0.9999990915079171</v>
+      </c>
+      <c r="T37">
+        <v>0.9999996767630139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999488371896739</v>
+      </c>
+      <c r="D38">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="E38">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="F38">
+        <v>0.9999488371896739</v>
+      </c>
+      <c r="G38">
+        <v>1.00003410667459</v>
+      </c>
+      <c r="H38">
+        <v>0.9999718608593138</v>
+      </c>
+      <c r="I38">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="J38">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="K38">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="L38">
+        <v>1.00001278762057</v>
+      </c>
+      <c r="M38">
+        <v>0.9999808124051222</v>
+      </c>
+      <c r="N38">
+        <v>0.9999808124051222</v>
+      </c>
+      <c r="O38">
+        <v>0.9999778285565194</v>
+      </c>
+      <c r="P38">
+        <v>0.9999914708102716</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999914708102716</v>
+      </c>
+      <c r="R38">
+        <v>0.9999968000128463</v>
+      </c>
+      <c r="S38">
+        <v>0.9999968000128463</v>
+      </c>
+      <c r="T38">
+        <v>0.9999988612642149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9998801376303003</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.00002996107644</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.00002996107644</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9998801376303003</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000079903038465</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999340814891517</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.00002996107644</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.00002996107644</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00002996107644</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00002996107644</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999550493533702</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999550493533702</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999480600652975</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999800199277269</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999800199277269</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999925052149052</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999925052149052</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999973342312063</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9994686357268637</v>
+      </c>
+      <c r="D40">
+        <v>1.000132838444841</v>
+      </c>
+      <c r="E40">
+        <v>1.000132838444841</v>
+      </c>
+      <c r="F40">
+        <v>0.9994686357268637</v>
+      </c>
+      <c r="G40">
+        <v>1.000354243027515</v>
+      </c>
+      <c r="H40">
+        <v>0.9997077505398135</v>
+      </c>
+      <c r="I40">
+        <v>1.000132838444841</v>
+      </c>
+      <c r="J40">
+        <v>1.000132838444841</v>
+      </c>
+      <c r="K40">
+        <v>1.000132838444841</v>
+      </c>
+      <c r="L40">
+        <v>1.000132838444841</v>
+      </c>
+      <c r="M40">
+        <v>0.9998007370858522</v>
+      </c>
+      <c r="N40">
+        <v>0.9998007370858522</v>
+      </c>
+      <c r="O40">
+        <v>0.999769741570506</v>
+      </c>
+      <c r="P40">
+        <v>0.9999114375388484</v>
+      </c>
+      <c r="Q40">
+        <v>0.9999114375388484</v>
+      </c>
+      <c r="R40">
+        <v>0.9999667877653464</v>
+      </c>
+      <c r="S40">
+        <v>0.9999667877653464</v>
+      </c>
+      <c r="T40">
+        <v>0.9999881907714524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9998992554569388</v>
+      </c>
+      <c r="D41">
+        <v>1.000025186837211</v>
+      </c>
+      <c r="E41">
+        <v>1.000025186837211</v>
+      </c>
+      <c r="F41">
+        <v>0.9998992554569388</v>
+      </c>
+      <c r="G41">
+        <v>1.000067159933889</v>
+      </c>
+      <c r="H41">
+        <v>0.9999445901139435</v>
+      </c>
+      <c r="I41">
+        <v>1.000025186837211</v>
+      </c>
+      <c r="J41">
+        <v>1.000025186837211</v>
+      </c>
+      <c r="K41">
+        <v>1.000025186837211</v>
+      </c>
+      <c r="L41">
+        <v>1.000025186837211</v>
+      </c>
+      <c r="M41">
+        <v>0.9999622211470751</v>
+      </c>
+      <c r="N41">
+        <v>0.9999622211470751</v>
+      </c>
+      <c r="O41">
+        <v>0.9999563441360313</v>
+      </c>
+      <c r="P41">
+        <v>0.9999832097104538</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999832097104538</v>
+      </c>
+      <c r="R41">
+        <v>0.9999937039921433</v>
+      </c>
+      <c r="S41">
+        <v>0.9999937039921433</v>
+      </c>
+      <c r="T41">
+        <v>0.9999977610027343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9975287567245197</v>
+      </c>
+      <c r="D42">
+        <v>1.000617810746447</v>
+      </c>
+      <c r="E42">
+        <v>1.000617810746447</v>
+      </c>
+      <c r="F42">
+        <v>0.9975287567245197</v>
+      </c>
+      <c r="G42">
+        <v>1.001647493140849</v>
+      </c>
+      <c r="H42">
+        <v>0.998640816209536</v>
+      </c>
+      <c r="I42">
+        <v>1.000617810746447</v>
+      </c>
+      <c r="J42">
+        <v>1.000617810746447</v>
+      </c>
+      <c r="K42">
+        <v>1.000617810746447</v>
+      </c>
+      <c r="L42">
+        <v>1.000617810746447</v>
+      </c>
+      <c r="M42">
+        <v>0.9990732837354833</v>
+      </c>
+      <c r="N42">
+        <v>0.9990732837354833</v>
+      </c>
+      <c r="O42">
+        <v>0.998929127893501</v>
+      </c>
+      <c r="P42">
+        <v>0.9995881260724712</v>
+      </c>
+      <c r="Q42">
+        <v>0.9995881260724712</v>
+      </c>
+      <c r="R42">
+        <v>0.9998455472409651</v>
+      </c>
+      <c r="S42">
+        <v>0.9998455472409651</v>
+      </c>
+      <c r="T42">
+        <v>0.9999450830523742</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000041542384966</v>
+        <v>0.9999723579557037</v>
       </c>
       <c r="D3">
-        <v>0.9998338294018013</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="E3">
-        <v>1.000041542384966</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="F3">
-        <v>1.000041542384966</v>
+        <v>0.9999723579557037</v>
       </c>
       <c r="G3">
-        <v>1.000110778348945</v>
+        <v>1.000018426751316</v>
       </c>
       <c r="H3">
-        <v>0.9999086070475278</v>
+        <v>0.9999847977954885</v>
       </c>
       <c r="I3">
-        <v>1.000041542384966</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="J3">
-        <v>0.9998338294018013</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="K3">
-        <v>1.000041542384966</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="L3">
-        <v>1.000041542384966</v>
+        <v>1.000006910556682</v>
       </c>
       <c r="M3">
-        <v>0.9999376858933837</v>
+        <v>0.9999896342561927</v>
       </c>
       <c r="N3">
-        <v>0.9999376858933837</v>
+        <v>0.9999896342561927</v>
       </c>
       <c r="O3">
-        <v>0.9999279929447651</v>
+        <v>0.9999880221026247</v>
       </c>
       <c r="P3">
-        <v>0.9999723047239112</v>
+        <v>0.9999953930230223</v>
       </c>
       <c r="Q3">
-        <v>0.9999723047239112</v>
+        <v>0.9999953930230223</v>
       </c>
       <c r="R3">
-        <v>0.999989614139175</v>
+        <v>0.9999982724064371</v>
       </c>
       <c r="S3">
-        <v>0.999989614139175</v>
+        <v>0.9999982724064371</v>
       </c>
       <c r="T3">
-        <v>0.9999963069921955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999993856954256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000080196972142</v>
+        <v>0.9994686357268637</v>
       </c>
       <c r="D4">
-        <v>0.9996792108190689</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="E4">
-        <v>1.000080196972142</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="F4">
-        <v>1.000080196972142</v>
+        <v>0.9994686357268637</v>
       </c>
       <c r="G4">
-        <v>1.000213856818168</v>
+        <v>1.000354243027515</v>
       </c>
       <c r="H4">
-        <v>0.9998235669390027</v>
+        <v>0.9997077505398135</v>
       </c>
       <c r="I4">
-        <v>1.000080196972142</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="J4">
-        <v>0.9996792108190689</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="K4">
-        <v>1.000080196972142</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="L4">
-        <v>1.000080196972142</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="M4">
-        <v>0.9998797038956052</v>
+        <v>0.9998007370858522</v>
       </c>
       <c r="N4">
-        <v>0.9998797038956052</v>
+        <v>0.9998007370858522</v>
       </c>
       <c r="O4">
-        <v>0.9998609915767377</v>
+        <v>0.999769741570506</v>
       </c>
       <c r="P4">
-        <v>0.9999465349211173</v>
+        <v>0.9999114375388484</v>
       </c>
       <c r="Q4">
-        <v>0.9999465349211173</v>
+        <v>0.9999114375388484</v>
       </c>
       <c r="R4">
-        <v>0.9999799504338733</v>
+        <v>0.9999667877653464</v>
       </c>
       <c r="S4">
-        <v>0.9999799504338733</v>
+        <v>0.9999667877653464</v>
       </c>
       <c r="T4">
-        <v>0.999992870915444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999881907714524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000153687088456</v>
+        <v>0.998261867471183</v>
       </c>
       <c r="D5">
-        <v>0.9993852483670057</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="E5">
-        <v>1.000153687088456</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="F5">
-        <v>1.000153687088456</v>
+        <v>0.998261867471183</v>
       </c>
       <c r="G5">
-        <v>1.00040983087638</v>
+        <v>1.001158755734869</v>
       </c>
       <c r="H5">
-        <v>0.9996618886280433</v>
+        <v>0.9990440275072021</v>
       </c>
       <c r="I5">
-        <v>1.000153687088456</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="J5">
-        <v>0.9993852483670057</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="K5">
-        <v>1.000153687088456</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="L5">
-        <v>1.000153687088456</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="M5">
-        <v>0.9997694677277307</v>
+        <v>0.9993481993083586</v>
       </c>
       <c r="N5">
-        <v>0.9997694677277307</v>
+        <v>0.9993481993083586</v>
       </c>
       <c r="O5">
-        <v>0.9997336080278348</v>
+        <v>0.9992468087079732</v>
       </c>
       <c r="P5">
-        <v>0.9998975408479723</v>
+        <v>0.9997103099207504</v>
       </c>
       <c r="Q5">
-        <v>0.9998975408479723</v>
+        <v>0.9997103099207504</v>
       </c>
       <c r="R5">
-        <v>0.9999615774080931</v>
+        <v>0.9998913652269463</v>
       </c>
       <c r="S5">
-        <v>0.9999615774080931</v>
+        <v>0.9998913652269463</v>
       </c>
       <c r="T5">
-        <v>0.9999863381894659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999613740249761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000225410929584</v>
+        <v>0.9941674468009005</v>
       </c>
       <c r="D6">
-        <v>0.9990983566726137</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="E6">
-        <v>1.000225410929584</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="F6">
-        <v>1.000225410929584</v>
+        <v>0.9941674468009005</v>
       </c>
       <c r="G6">
-        <v>1.000601087844341</v>
+        <v>1.003888375900058</v>
       </c>
       <c r="H6">
-        <v>0.9995040928412798</v>
+        <v>0.9967920954453524</v>
       </c>
       <c r="I6">
-        <v>1.000225410929584</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="J6">
-        <v>0.9990983566726137</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="K6">
-        <v>1.000225410929584</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="L6">
-        <v>1.000225410929584</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="M6">
-        <v>0.999661883801099</v>
+        <v>0.9978127809758174</v>
       </c>
       <c r="N6">
-        <v>0.999661883801099</v>
+        <v>0.9978127809758174</v>
       </c>
       <c r="O6">
-        <v>0.9996092868144926</v>
+        <v>0.9974725524656624</v>
       </c>
       <c r="P6">
-        <v>0.9998497261772608</v>
+        <v>0.9990278923674563</v>
       </c>
       <c r="Q6">
-        <v>0.9998497261772608</v>
+        <v>0.9990278923674563</v>
       </c>
       <c r="R6">
-        <v>0.9999436473653416</v>
+        <v>0.9996354480632758</v>
       </c>
       <c r="S6">
-        <v>0.9999436473653416</v>
+        <v>0.9996354480632758</v>
       </c>
       <c r="T6">
-        <v>0.9999799616911645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9998703772664189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000002809197956</v>
+        <v>0.9998181162221488</v>
       </c>
       <c r="D7">
-        <v>0.9999887632774009</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="E7">
-        <v>1.000002809197956</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="F7">
-        <v>1.000002809197956</v>
+        <v>0.9998181162221488</v>
       </c>
       <c r="G7">
-        <v>1.000007489523538</v>
+        <v>1.00012125422771</v>
       </c>
       <c r="H7">
-        <v>0.9999938205776264</v>
+        <v>0.9998999648792914</v>
       </c>
       <c r="I7">
-        <v>1.000002809197956</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="J7">
-        <v>0.9999887632774009</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="K7">
-        <v>1.000002809197956</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="L7">
-        <v>1.000002809197956</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="M7">
-        <v>0.9999957862376784</v>
+        <v>0.9999317937257826</v>
       </c>
       <c r="N7">
-        <v>0.9999957862376784</v>
+        <v>0.9999317937257826</v>
       </c>
       <c r="O7">
-        <v>0.999995131017661</v>
+        <v>0.9999211841102854</v>
       </c>
       <c r="P7">
-        <v>0.9999981272244375</v>
+        <v>0.9999696862269939</v>
       </c>
       <c r="Q7">
-        <v>0.9999981272244375</v>
+        <v>0.9999696862269939</v>
       </c>
       <c r="R7">
-        <v>0.9999992977178171</v>
+        <v>0.9999886324775995</v>
       </c>
       <c r="S7">
-        <v>0.9999992977178171</v>
+        <v>0.9999886324775995</v>
       </c>
       <c r="T7">
-        <v>0.9999997501620722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999959581695665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000006910556682</v>
+        <v>0.9999854663324844</v>
       </c>
       <c r="D8">
-        <v>0.9999723579557039</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="E8">
-        <v>1.000006910556682</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="F8">
-        <v>1.000006910556682</v>
+        <v>0.9999854663324844</v>
       </c>
       <c r="G8">
-        <v>1.000018426751316</v>
+        <v>1.000009687114081</v>
       </c>
       <c r="H8">
-        <v>0.9999847977954885</v>
+        <v>0.9999920074323341</v>
       </c>
       <c r="I8">
-        <v>1.000006910556682</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="J8">
-        <v>0.9999723579557039</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="K8">
-        <v>1.000006910556682</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="L8">
-        <v>1.000006910556682</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="M8">
-        <v>0.9999896342561927</v>
+        <v>0.9999945497827729</v>
       </c>
       <c r="N8">
-        <v>0.9999896342561927</v>
+        <v>0.9999945497827729</v>
       </c>
       <c r="O8">
-        <v>0.9999880221026247</v>
+        <v>0.9999937023326266</v>
       </c>
       <c r="P8">
-        <v>0.9999953930230223</v>
+        <v>0.9999975775995358</v>
       </c>
       <c r="Q8">
-        <v>0.9999953930230223</v>
+        <v>0.9999975775995358</v>
       </c>
       <c r="R8">
-        <v>0.9999982724064371</v>
+        <v>0.9999990915079171</v>
       </c>
       <c r="S8">
-        <v>0.9999982724064371</v>
+        <v>0.9999990915079171</v>
       </c>
       <c r="T8">
-        <v>0.9999993856954256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999996767630139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000009256757541</v>
+        <v>0.9996792108190689</v>
       </c>
       <c r="D9">
-        <v>0.999962973868771</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="E9">
-        <v>1.000009256757541</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="F9">
-        <v>1.000009256757541</v>
+        <v>0.9996792108190689</v>
       </c>
       <c r="G9">
-        <v>1.000024683116354</v>
+        <v>1.000213856818168</v>
       </c>
       <c r="H9">
-        <v>0.9999796363602951</v>
+        <v>0.9998235669390027</v>
       </c>
       <c r="I9">
-        <v>1.000009256757541</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="J9">
-        <v>0.999962973868771</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="K9">
-        <v>1.000009256757541</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="L9">
-        <v>1.000009256757541</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="M9">
-        <v>0.9999861153131561</v>
+        <v>0.9998797038956052</v>
       </c>
       <c r="N9">
-        <v>0.9999861153131561</v>
+        <v>0.9998797038956052</v>
       </c>
       <c r="O9">
-        <v>0.9999839556622024</v>
+        <v>0.9998609915767377</v>
       </c>
       <c r="P9">
-        <v>0.9999938291279511</v>
+        <v>0.9999465349211173</v>
       </c>
       <c r="Q9">
-        <v>0.9999938291279511</v>
+        <v>0.9999465349211173</v>
       </c>
       <c r="R9">
-        <v>0.9999976860353486</v>
+        <v>0.9999799504338733</v>
       </c>
       <c r="S9">
-        <v>0.9999976860353486</v>
+        <v>0.9999799504338733</v>
       </c>
       <c r="T9">
-        <v>0.9999991772696738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.999992870915444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000020339603811</v>
+        <v>0.9940806088710478</v>
       </c>
       <c r="D10">
-        <v>0.9999186379145119</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="E10">
-        <v>1.000020339603811</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="F10">
-        <v>1.000020339603811</v>
+        <v>0.9940806088710478</v>
       </c>
       <c r="G10">
-        <v>1.000054239591022</v>
+        <v>1.003946268608769</v>
       </c>
       <c r="H10">
-        <v>0.999955251192706</v>
+        <v>0.9967443345806496</v>
       </c>
       <c r="I10">
-        <v>1.000020339603811</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="J10">
-        <v>0.9999186379145119</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="K10">
-        <v>1.000020339603811</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="L10">
-        <v>1.000020339603811</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="M10">
-        <v>0.9999694887591617</v>
+        <v>0.9977802167344818</v>
       </c>
       <c r="N10">
-        <v>0.9999694887591617</v>
+        <v>0.9977802167344818</v>
       </c>
       <c r="O10">
-        <v>0.9999647429036765</v>
+        <v>0.9974349226832043</v>
       </c>
       <c r="P10">
-        <v>0.9999864390407116</v>
+        <v>0.9990134193556265</v>
       </c>
       <c r="Q10">
-        <v>0.9999864390407116</v>
+        <v>0.9990134193556265</v>
       </c>
       <c r="R10">
-        <v>0.9999949141814866</v>
+        <v>0.9996300206661989</v>
       </c>
       <c r="S10">
-        <v>0.9999949141814866</v>
+        <v>0.9996300206661989</v>
       </c>
       <c r="T10">
-        <v>0.9999981912516125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.999868447642369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000032769204765</v>
+        <v>0.9990293634633792</v>
       </c>
       <c r="D11">
-        <v>0.9998689146671162</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="E11">
-        <v>1.000032769204765</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="F11">
-        <v>1.000032769204765</v>
+        <v>0.9990293634633792</v>
       </c>
       <c r="G11">
-        <v>1.000087387853323</v>
+        <v>1.000647090406958</v>
       </c>
       <c r="H11">
-        <v>0.9999279023975984</v>
+        <v>0.9994661496685973</v>
       </c>
       <c r="I11">
-        <v>1.000032769204765</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="J11">
-        <v>0.9998689146671162</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="K11">
-        <v>1.000032769204765</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="L11">
-        <v>1.000032769204765</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="M11">
-        <v>0.9999508419359404</v>
+        <v>0.9996360105901927</v>
       </c>
       <c r="N11">
-        <v>0.9999508419359404</v>
+        <v>0.9996360105901927</v>
       </c>
       <c r="O11">
-        <v>0.9999431954231598</v>
+        <v>0.9995793902829941</v>
       </c>
       <c r="P11">
-        <v>0.9999781510255484</v>
+        <v>0.9998382262991306</v>
       </c>
       <c r="Q11">
-        <v>0.9999781510255484</v>
+        <v>0.9998382262991306</v>
       </c>
       <c r="R11">
-        <v>0.9999918055703525</v>
+        <v>0.9999393341535995</v>
       </c>
       <c r="S11">
-        <v>0.9999918055703525</v>
+        <v>0.9999393341535995</v>
       </c>
       <c r="T11">
-        <v>0.9999970854220552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999784294483254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9997050280197765</v>
+        <v>0.9982070778842116</v>
       </c>
       <c r="D12">
-        <v>1.001179912910884</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="E12">
-        <v>0.9997050280197765</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="F12">
-        <v>0.9997050280197765</v>
+        <v>0.9982070778842116</v>
       </c>
       <c r="G12">
-        <v>0.9992133912421399</v>
+        <v>1.001195284010527</v>
       </c>
       <c r="H12">
-        <v>1.000648947208944</v>
+        <v>0.9990138934736834</v>
       </c>
       <c r="I12">
-        <v>0.9997050280197765</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="J12">
-        <v>1.001179912910884</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="K12">
-        <v>0.9997050280197765</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="L12">
-        <v>0.9997050280197765</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="M12">
-        <v>1.00044247046533</v>
+        <v>0.9993276526473693</v>
       </c>
       <c r="N12">
-        <v>1.00044247046533</v>
+        <v>0.9993276526473693</v>
       </c>
       <c r="O12">
-        <v>1.000511296046535</v>
+        <v>0.9992230662561408</v>
       </c>
       <c r="P12">
-        <v>1.000196656316812</v>
+        <v>0.9997011775684218</v>
       </c>
       <c r="Q12">
-        <v>1.000196656316812</v>
+        <v>0.9997011775684218</v>
       </c>
       <c r="R12">
-        <v>1.000073749242553</v>
+        <v>0.9998879400289482</v>
       </c>
       <c r="S12">
-        <v>1.000073749242553</v>
+        <v>0.9998879400289482</v>
       </c>
       <c r="T12">
-        <v>1.000026222570216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999601562666672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999239295944982</v>
+        <v>1.001164186605298</v>
       </c>
       <c r="D13">
-        <v>1.000304270852529</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="E13">
-        <v>0.9999239295944982</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="F13">
-        <v>0.9999239295944982</v>
+        <v>1.001164186605298</v>
       </c>
       <c r="G13">
-        <v>0.9997971557457008</v>
+        <v>0.999223874942436</v>
       </c>
       <c r="H13">
-        <v>1.000167350290399</v>
+        <v>1.000640304527157</v>
       </c>
       <c r="I13">
-        <v>0.9999239295944982</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="J13">
-        <v>1.000304270852529</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="K13">
-        <v>0.9999239295944982</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="L13">
-        <v>0.9999239295944982</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="M13">
-        <v>1.000114100223514</v>
+        <v>1.00043656965548</v>
       </c>
       <c r="N13">
-        <v>1.000114100223514</v>
+        <v>1.00043656965548</v>
       </c>
       <c r="O13">
-        <v>1.000131850245809</v>
+        <v>1.000504481279372</v>
       </c>
       <c r="P13">
-        <v>1.000050710013842</v>
+        <v>1.000194030672207</v>
       </c>
       <c r="Q13">
-        <v>1.000050710013842</v>
+        <v>1.000194030672207</v>
       </c>
       <c r="R13">
-        <v>1.000019014909006</v>
+        <v>1.00007276118057</v>
       </c>
       <c r="S13">
-        <v>1.000019014909006</v>
+        <v>1.00007276118057</v>
       </c>
       <c r="T13">
-        <v>1.000006760945354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000025870698646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9991328313354622</v>
+        <v>0.9897730200000008</v>
       </c>
       <c r="D14">
-        <v>1.003468659585671</v>
+        <v>1.0025567</v>
       </c>
       <c r="E14">
-        <v>0.9991328313354622</v>
+        <v>1.0025567</v>
       </c>
       <c r="F14">
-        <v>0.9991328313354622</v>
+        <v>0.9897730200000008</v>
       </c>
       <c r="G14">
-        <v>0.9976875647952085</v>
+        <v>1.006818</v>
       </c>
       <c r="H14">
-        <v>1.001907759690433</v>
+        <v>0.9943751599999993</v>
       </c>
       <c r="I14">
-        <v>0.9991328313354622</v>
+        <v>1.0025567</v>
       </c>
       <c r="J14">
-        <v>1.003468659585671</v>
+        <v>1.0025567</v>
       </c>
       <c r="K14">
-        <v>0.9991328313354622</v>
+        <v>1.0025567</v>
       </c>
       <c r="L14">
-        <v>0.9991328313354622</v>
+        <v>1.0025567</v>
       </c>
       <c r="M14">
-        <v>1.001300745460566</v>
+        <v>0.9961648600000003</v>
       </c>
       <c r="N14">
-        <v>1.001300745460566</v>
+        <v>0.9961648600000003</v>
       </c>
       <c r="O14">
-        <v>1.001503083537189</v>
+        <v>0.9955682933333332</v>
       </c>
       <c r="P14">
-        <v>1.000578107418865</v>
+        <v>0.9982954733333335</v>
       </c>
       <c r="Q14">
-        <v>1.000578107418865</v>
+        <v>0.9982954733333335</v>
       </c>
       <c r="R14">
-        <v>1.000216788398014</v>
+        <v>0.9993607799999999</v>
       </c>
       <c r="S14">
-        <v>1.000216788398014</v>
+        <v>0.9993607799999999</v>
       </c>
       <c r="T14">
-        <v>1.000077079679617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9997727133333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9997714811504449</v>
+        <v>1.000133</v>
       </c>
       <c r="D15">
-        <v>1.000914067258839</v>
+        <v>0.99996676</v>
       </c>
       <c r="E15">
-        <v>0.9997714811504449</v>
+        <v>0.99996676</v>
       </c>
       <c r="F15">
-        <v>0.9997714811504449</v>
+        <v>1.000133</v>
       </c>
       <c r="G15">
-        <v>0.999390627392853</v>
+        <v>0.99991136</v>
       </c>
       <c r="H15">
-        <v>1.000502746216755</v>
+        <v>1.0000731</v>
       </c>
       <c r="I15">
-        <v>0.9997714811504449</v>
+        <v>0.99996676</v>
       </c>
       <c r="J15">
-        <v>1.000914067258839</v>
+        <v>0.99996676</v>
       </c>
       <c r="K15">
-        <v>0.9997714811504449</v>
+        <v>0.99996676</v>
       </c>
       <c r="L15">
-        <v>0.9997714811504449</v>
+        <v>0.99996676</v>
       </c>
       <c r="M15">
-        <v>1.000342774204642</v>
+        <v>1.00004988</v>
       </c>
       <c r="N15">
-        <v>1.000342774204642</v>
+        <v>1.00004988</v>
       </c>
       <c r="O15">
-        <v>1.000396098208679</v>
+        <v>1.00005762</v>
       </c>
       <c r="P15">
-        <v>1.000152343186576</v>
+        <v>1.000022173333333</v>
       </c>
       <c r="Q15">
-        <v>1.000152343186576</v>
+        <v>1.000022173333333</v>
       </c>
       <c r="R15">
-        <v>1.000057127677543</v>
+        <v>1.00000832</v>
       </c>
       <c r="S15">
-        <v>1.000057127677543</v>
+        <v>1.00000832</v>
       </c>
       <c r="T15">
-        <v>1.000020314053297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.000002956666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000171758176</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D16">
-        <v>0.9999993120575538</v>
+        <v>1.0010055</v>
       </c>
       <c r="E16">
-        <v>1.000000171758176</v>
+        <v>1.0010055</v>
       </c>
       <c r="F16">
-        <v>1.000000171758176</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G16">
-        <v>1.000000456957074</v>
+        <v>1.0026814</v>
       </c>
       <c r="H16">
-        <v>0.9999996225261597</v>
+        <v>0.99778785</v>
       </c>
       <c r="I16">
-        <v>1.000000171758176</v>
+        <v>1.0010055</v>
       </c>
       <c r="J16">
-        <v>0.9999993120575538</v>
+        <v>1.0010055</v>
       </c>
       <c r="K16">
-        <v>1.000000171758176</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>1.000000171758176</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>0.999999741907865</v>
+        <v>0.9984917</v>
       </c>
       <c r="N16">
-        <v>0.999999741907865</v>
+        <v>0.9984917</v>
       </c>
       <c r="O16">
-        <v>0.9999997021139633</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P16">
-        <v>0.999999885191302</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q16">
-        <v>0.999999885191302</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R16">
-        <v>0.9999999568330206</v>
+        <v>0.9997486</v>
       </c>
       <c r="S16">
-        <v>0.9999999568330206</v>
+        <v>0.9997486</v>
       </c>
       <c r="T16">
-        <v>0.9999999844692194</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003633233061</v>
+        <v>1.0051883</v>
       </c>
       <c r="D17">
-        <v>0.9999854663324843</v>
+        <v>0.99870293</v>
       </c>
       <c r="E17">
-        <v>1.000003633233061</v>
+        <v>0.99870293</v>
       </c>
       <c r="F17">
-        <v>1.000003633233061</v>
+        <v>1.0051883</v>
       </c>
       <c r="G17">
-        <v>1.000009687114081</v>
+        <v>0.99654114</v>
       </c>
       <c r="H17">
-        <v>0.999992007432334</v>
+        <v>1.0028536</v>
       </c>
       <c r="I17">
-        <v>1.000003633233061</v>
+        <v>0.99870293</v>
       </c>
       <c r="J17">
-        <v>0.9999854663324843</v>
+        <v>0.99870293</v>
       </c>
       <c r="K17">
-        <v>1.000003633233061</v>
+        <v>0.99870293</v>
       </c>
       <c r="L17">
-        <v>1.000003633233061</v>
+        <v>0.99870293</v>
       </c>
       <c r="M17">
-        <v>0.9999945497827728</v>
+        <v>1.001945615</v>
       </c>
       <c r="N17">
-        <v>0.9999945497827728</v>
+        <v>1.001945615</v>
       </c>
       <c r="O17">
-        <v>0.9999937023326265</v>
+        <v>1.002248276666666</v>
       </c>
       <c r="P17">
-        <v>0.9999975775995357</v>
+        <v>1.00086472</v>
       </c>
       <c r="Q17">
-        <v>0.9999975775995357</v>
+        <v>1.00086472</v>
       </c>
       <c r="R17">
-        <v>0.9999990915079171</v>
+        <v>1.0003242725</v>
       </c>
       <c r="S17">
-        <v>0.9999990915079171</v>
+        <v>1.0003242725</v>
       </c>
       <c r="T17">
-        <v>0.9999996767630138</v>
+        <v>1.000115305</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00001278762057</v>
+        <v>0.9962192394520544</v>
       </c>
       <c r="D18">
-        <v>0.9999488371896739</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="E18">
-        <v>1.00001278762057</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="F18">
-        <v>1.00001278762057</v>
+        <v>0.9962192394520544</v>
       </c>
       <c r="G18">
-        <v>1.00003410667459</v>
+        <v>1.002520499726028</v>
       </c>
       <c r="H18">
-        <v>0.9999718608593136</v>
+        <v>0.9979205797260277</v>
       </c>
       <c r="I18">
-        <v>1.00001278762057</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="J18">
-        <v>0.9999488371896739</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="K18">
-        <v>1.00001278762057</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="L18">
-        <v>1.00001278762057</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="M18">
-        <v>0.9999808124051222</v>
+        <v>0.9985822175342461</v>
       </c>
       <c r="N18">
-        <v>0.9999808124051222</v>
+        <v>0.9985822175342461</v>
       </c>
       <c r="O18">
-        <v>0.9999778285565193</v>
+        <v>0.9983616715981732</v>
       </c>
       <c r="P18">
-        <v>0.9999914708102716</v>
+        <v>0.9993698768949768</v>
       </c>
       <c r="Q18">
-        <v>0.9999914708102716</v>
+        <v>0.9993698768949768</v>
       </c>
       <c r="R18">
-        <v>0.9999968000128463</v>
+        <v>0.9997637065753421</v>
       </c>
       <c r="S18">
-        <v>0.9999968000128463</v>
+        <v>0.9997637065753421</v>
       </c>
       <c r="T18">
-        <v>0.9999988612642148</v>
+        <v>0.9999159842922373</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00002996107644</v>
+        <v>0.9996722636842105</v>
       </c>
       <c r="D19">
-        <v>0.9998801376303003</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="E19">
-        <v>1.00002996107644</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="F19">
-        <v>1.00002996107644</v>
+        <v>0.9996722636842105</v>
       </c>
       <c r="G19">
-        <v>1.000079903038465</v>
+        <v>1.000218491578947</v>
       </c>
       <c r="H19">
-        <v>0.9999340814891517</v>
+        <v>0.9998197484210527</v>
       </c>
       <c r="I19">
-        <v>1.00002996107644</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="J19">
-        <v>0.9998801376303003</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="K19">
-        <v>1.00002996107644</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="L19">
-        <v>1.00002996107644</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="M19">
-        <v>0.9999550493533702</v>
+        <v>0.9998770921052631</v>
       </c>
       <c r="N19">
-        <v>0.9999550493533702</v>
+        <v>0.9998770921052631</v>
       </c>
       <c r="O19">
-        <v>0.9999480600652975</v>
+        <v>0.9998579775438596</v>
       </c>
       <c r="P19">
-        <v>0.9999800199277269</v>
+        <v>0.9999453682456139</v>
       </c>
       <c r="Q19">
-        <v>0.9999800199277269</v>
+        <v>0.9999453682456139</v>
       </c>
       <c r="R19">
-        <v>0.9999925052149052</v>
+        <v>0.9999795063157892</v>
       </c>
       <c r="S19">
-        <v>0.9999925052149052</v>
+        <v>0.9999795063157892</v>
       </c>
       <c r="T19">
-        <v>0.9999973342312063</v>
+        <v>0.9999927108771929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.998305462631579</v>
+      </c>
+      <c r="D20">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="E20">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="F20">
+        <v>0.998305462631579</v>
+      </c>
+      <c r="G20">
+        <v>1.001129694736842</v>
+      </c>
+      <c r="H20">
+        <v>0.9990680010526315</v>
+      </c>
+      <c r="I20">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="J20">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="K20">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="L20">
+        <v>1.000423632105263</v>
+      </c>
+      <c r="M20">
+        <v>0.9993645473684212</v>
+      </c>
+      <c r="N20">
+        <v>0.9993645473684212</v>
+      </c>
+      <c r="O20">
+        <v>0.9992656985964913</v>
+      </c>
+      <c r="P20">
+        <v>0.9997175756140352</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997175756140352</v>
+      </c>
+      <c r="R20">
+        <v>0.9998940897368422</v>
+      </c>
+      <c r="S20">
+        <v>0.9998940897368422</v>
+      </c>
+      <c r="T20">
+        <v>0.9999623424561405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.003468659585671</v>
+      </c>
+      <c r="D21">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="E21">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="F21">
+        <v>1.003468659585671</v>
+      </c>
+      <c r="G21">
+        <v>0.9976875647952085</v>
+      </c>
+      <c r="H21">
+        <v>1.001907759690433</v>
+      </c>
+      <c r="I21">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="J21">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="K21">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="L21">
+        <v>0.9991328313354622</v>
+      </c>
+      <c r="M21">
+        <v>1.001300745460566</v>
+      </c>
+      <c r="N21">
+        <v>1.001300745460566</v>
+      </c>
+      <c r="O21">
+        <v>1.001503083537189</v>
+      </c>
+      <c r="P21">
+        <v>1.000578107418865</v>
+      </c>
+      <c r="Q21">
+        <v>1.000578107418865</v>
+      </c>
+      <c r="R21">
+        <v>1.000216788398014</v>
+      </c>
+      <c r="S21">
+        <v>1.000216788398014</v>
+      </c>
+      <c r="T21">
+        <v>1.000077079679617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000914067258839</v>
+      </c>
+      <c r="D22">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="E22">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="F22">
+        <v>1.000914067258839</v>
+      </c>
+      <c r="G22">
+        <v>0.999390627392853</v>
+      </c>
+      <c r="H22">
+        <v>1.000502746216755</v>
+      </c>
+      <c r="I22">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="J22">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="K22">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="L22">
+        <v>0.9997714811504449</v>
+      </c>
+      <c r="M22">
+        <v>1.000342774204642</v>
+      </c>
+      <c r="N22">
+        <v>1.000342774204642</v>
+      </c>
+      <c r="O22">
+        <v>1.000396098208679</v>
+      </c>
+      <c r="P22">
+        <v>1.000152343186576</v>
+      </c>
+      <c r="Q22">
+        <v>1.000152343186576</v>
+      </c>
+      <c r="R22">
+        <v>1.000057127677543</v>
+      </c>
+      <c r="S22">
+        <v>1.000057127677543</v>
+      </c>
+      <c r="T22">
+        <v>1.000020314053297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001179912910884</v>
+      </c>
+      <c r="D23">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="E23">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="F23">
+        <v>1.001179912910884</v>
+      </c>
+      <c r="G23">
+        <v>0.9992133912421399</v>
+      </c>
+      <c r="H23">
+        <v>1.000648947208944</v>
+      </c>
+      <c r="I23">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="J23">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="K23">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="L23">
+        <v>0.9997050280197765</v>
+      </c>
+      <c r="M23">
+        <v>1.00044247046533</v>
+      </c>
+      <c r="N23">
+        <v>1.00044247046533</v>
+      </c>
+      <c r="O23">
+        <v>1.000511296046535</v>
+      </c>
+      <c r="P23">
+        <v>1.000196656316812</v>
+      </c>
+      <c r="Q23">
+        <v>1.000196656316812</v>
+      </c>
+      <c r="R23">
+        <v>1.000073749242553</v>
+      </c>
+      <c r="S23">
+        <v>1.000073749242553</v>
+      </c>
+      <c r="T23">
+        <v>1.000026222570216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000304270852529</v>
+      </c>
+      <c r="D24">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="E24">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="F24">
+        <v>1.000304270852529</v>
+      </c>
+      <c r="G24">
+        <v>0.999797155745701</v>
+      </c>
+      <c r="H24">
+        <v>1.0001673502904</v>
+      </c>
+      <c r="I24">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="J24">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="K24">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="L24">
+        <v>0.9999239295944984</v>
+      </c>
+      <c r="M24">
+        <v>1.000114100223514</v>
+      </c>
+      <c r="N24">
+        <v>1.000114100223514</v>
+      </c>
+      <c r="O24">
+        <v>1.000131850245809</v>
+      </c>
+      <c r="P24">
+        <v>1.000050710013842</v>
+      </c>
+      <c r="Q24">
+        <v>1.000050710013842</v>
+      </c>
+      <c r="R24">
+        <v>1.000019014909006</v>
+      </c>
+      <c r="S24">
+        <v>1.000019014909006</v>
+      </c>
+      <c r="T24">
+        <v>1.000006760945354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9995323990763613</v>
+      </c>
+      <c r="D25">
+        <v>1.000116902565609</v>
+      </c>
+      <c r="E25">
+        <v>1.000116902565609</v>
+      </c>
+      <c r="F25">
+        <v>0.9995323990763613</v>
+      </c>
+      <c r="G25">
+        <v>1.000311729037775</v>
+      </c>
+      <c r="H25">
+        <v>0.9997428237755831</v>
+      </c>
+      <c r="I25">
+        <v>1.000116902565609</v>
+      </c>
+      <c r="J25">
+        <v>1.000116902565609</v>
+      </c>
+      <c r="K25">
+        <v>1.000116902565609</v>
+      </c>
+      <c r="L25">
+        <v>1.000116902565609</v>
+      </c>
+      <c r="M25">
+        <v>0.9998246508209854</v>
+      </c>
+      <c r="N25">
+        <v>0.9998246508209854</v>
+      </c>
+      <c r="O25">
+        <v>0.9997973751391847</v>
+      </c>
+      <c r="P25">
+        <v>0.9999220680691933</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999220680691933</v>
+      </c>
+      <c r="R25">
+        <v>0.9999707766932973</v>
+      </c>
+      <c r="S25">
+        <v>0.9999707766932973</v>
+      </c>
+      <c r="T25">
+        <v>0.9999896099310912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9998615009508044</v>
+      </c>
+      <c r="D26">
+        <v>1.000034627273806</v>
+      </c>
+      <c r="E26">
+        <v>1.000034627273806</v>
+      </c>
+      <c r="F26">
+        <v>0.9998615009508044</v>
+      </c>
+      <c r="G26">
+        <v>1.000092331658365</v>
+      </c>
+      <c r="H26">
+        <v>0.9999238244352632</v>
+      </c>
+      <c r="I26">
+        <v>1.000034627273806</v>
+      </c>
+      <c r="J26">
+        <v>1.000034627273806</v>
+      </c>
+      <c r="K26">
+        <v>1.000034627273806</v>
+      </c>
+      <c r="L26">
+        <v>1.000034627273806</v>
+      </c>
+      <c r="M26">
+        <v>0.9999480641123053</v>
+      </c>
+      <c r="N26">
+        <v>0.9999480641123053</v>
+      </c>
+      <c r="O26">
+        <v>0.9999399842199579</v>
+      </c>
+      <c r="P26">
+        <v>0.9999769184994722</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999769184994722</v>
+      </c>
+      <c r="R26">
+        <v>0.9999913456930558</v>
+      </c>
+      <c r="S26">
+        <v>0.9999913456930558</v>
+      </c>
+      <c r="T26">
+        <v>0.9999969231443085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.999390461077688</v>
+      </c>
+      <c r="D27">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="E27">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="F27">
+        <v>0.999390461077688</v>
+      </c>
+      <c r="G27">
+        <v>1.000406350622939</v>
+      </c>
+      <c r="H27">
+        <v>0.9996647607360739</v>
+      </c>
+      <c r="I27">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="J27">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="K27">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="L27">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="M27">
+        <v>0.9997714214328269</v>
+      </c>
+      <c r="N27">
+        <v>0.9997714214328269</v>
+      </c>
+      <c r="O27">
+        <v>0.9997358678672427</v>
+      </c>
+      <c r="P27">
+        <v>0.9998984082178732</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998984082178732</v>
+      </c>
+      <c r="R27">
+        <v>0.9999619016103964</v>
+      </c>
+      <c r="S27">
+        <v>0.9999619016103964</v>
+      </c>
+      <c r="T27">
+        <v>0.9999864529667665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000167905870653</v>
+      </c>
+      <c r="D28">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="E28">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="F28">
+        <v>1.000167905870653</v>
+      </c>
+      <c r="G28">
+        <v>0.9998880602349608</v>
+      </c>
+      <c r="H28">
+        <v>1.000092351718114</v>
+      </c>
+      <c r="I28">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="J28">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="K28">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="L28">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="M28">
+        <v>1.000062962500241</v>
+      </c>
+      <c r="N28">
+        <v>1.000062962500241</v>
+      </c>
+      <c r="O28">
+        <v>1.000072758906199</v>
+      </c>
+      <c r="P28">
+        <v>1.000027981376771</v>
+      </c>
+      <c r="Q28">
+        <v>1.000027981376771</v>
+      </c>
+      <c r="R28">
+        <v>1.000010490815035</v>
+      </c>
+      <c r="S28">
+        <v>1.000010490815035</v>
+      </c>
+      <c r="T28">
+        <v>1.000003729202203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.002044607752316</v>
+      </c>
+      <c r="D29">
+        <v>0.9994888406864756</v>
+      </c>
+      <c r="E29">
+        <v>0.9994888406864756</v>
+      </c>
+      <c r="F29">
+        <v>1.002044607752316</v>
+      </c>
+      <c r="G29">
+        <v>0.9986369245362688</v>
+      </c>
+      <c r="H29">
+        <v>1.001124535635235</v>
+      </c>
+      <c r="I29">
+        <v>0.9994888406864756</v>
+      </c>
+      <c r="J29">
+        <v>0.9994888406864756</v>
+      </c>
+      <c r="K29">
+        <v>0.9994888406864756</v>
+      </c>
+      <c r="L29">
+        <v>0.9994888406864756</v>
+      </c>
+      <c r="M29">
+        <v>1.000766724219396</v>
+      </c>
+      <c r="N29">
+        <v>1.000766724219396</v>
+      </c>
+      <c r="O29">
+        <v>1.000885994691342</v>
+      </c>
+      <c r="P29">
+        <v>1.000340763041756</v>
+      </c>
+      <c r="Q29">
+        <v>1.000340763041756</v>
+      </c>
+      <c r="R29">
+        <v>1.000127782452936</v>
+      </c>
+      <c r="S29">
+        <v>1.000127782452936</v>
+      </c>
+      <c r="T29">
+        <v>1.000045431663874</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9994686357268637</v>
+        <v>0.9985231013767886</v>
       </c>
       <c r="D4">
-        <v>1.000132838444841</v>
+        <v>1.000369223415368</v>
       </c>
       <c r="E4">
-        <v>1.000132838444841</v>
+        <v>1.000369223415368</v>
       </c>
       <c r="F4">
-        <v>0.9994686357268637</v>
+        <v>0.9985231013767886</v>
       </c>
       <c r="G4">
-        <v>1.000354243027515</v>
+        <v>1.000984599542982</v>
       </c>
       <c r="H4">
-        <v>0.9997077505398135</v>
+        <v>0.9991877063428579</v>
       </c>
       <c r="I4">
-        <v>1.000132838444841</v>
+        <v>1.000369223415368</v>
       </c>
       <c r="J4">
-        <v>1.000132838444841</v>
+        <v>1.000369223415368</v>
       </c>
       <c r="K4">
-        <v>1.000132838444841</v>
+        <v>1.000369223415368</v>
       </c>
       <c r="L4">
-        <v>1.000132838444841</v>
+        <v>1.000369223415368</v>
       </c>
       <c r="M4">
-        <v>0.9998007370858522</v>
+        <v>0.9994461623960784</v>
       </c>
       <c r="N4">
-        <v>0.9998007370858522</v>
+        <v>0.9994461623960784</v>
       </c>
       <c r="O4">
-        <v>0.999769741570506</v>
+        <v>0.9993600103783383</v>
       </c>
       <c r="P4">
-        <v>0.9999114375388484</v>
+        <v>0.9997538494025084</v>
       </c>
       <c r="Q4">
-        <v>0.9999114375388484</v>
+        <v>0.9997538494025084</v>
       </c>
       <c r="R4">
-        <v>0.9999667877653464</v>
+        <v>0.9999076929057233</v>
       </c>
       <c r="S4">
-        <v>0.9999667877653464</v>
+        <v>0.9999076929057233</v>
       </c>
       <c r="T4">
-        <v>0.9999881907714524</v>
+        <v>0.999967179584789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.998261867471183</v>
+        <v>0.998943343752234</v>
       </c>
       <c r="D5">
-        <v>1.000434531145534</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="E5">
-        <v>1.000434531145534</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="F5">
-        <v>0.998261867471183</v>
+        <v>0.998943343752234</v>
       </c>
       <c r="G5">
-        <v>1.001158755734869</v>
+        <v>1.000704438409877</v>
       </c>
       <c r="H5">
-        <v>0.9990440275072021</v>
+        <v>0.9994188365055918</v>
       </c>
       <c r="I5">
-        <v>1.000434531145534</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="J5">
-        <v>1.000434531145534</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="K5">
-        <v>1.000434531145534</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="L5">
-        <v>1.000434531145534</v>
+        <v>1.000264164278204</v>
       </c>
       <c r="M5">
-        <v>0.9993481993083586</v>
+        <v>0.9996037540152187</v>
       </c>
       <c r="N5">
-        <v>0.9993481993083586</v>
+        <v>0.9996037540152187</v>
       </c>
       <c r="O5">
-        <v>0.9992468087079732</v>
+        <v>0.9995421148453431</v>
       </c>
       <c r="P5">
-        <v>0.9997103099207504</v>
+        <v>0.999823890769547</v>
       </c>
       <c r="Q5">
-        <v>0.9997103099207504</v>
+        <v>0.999823890769547</v>
       </c>
       <c r="R5">
-        <v>0.9998913652269463</v>
+        <v>0.9999339591467111</v>
       </c>
       <c r="S5">
-        <v>0.9998913652269463</v>
+        <v>0.9999339591467111</v>
       </c>
       <c r="T5">
-        <v>0.9999613740249761</v>
+        <v>0.9999765185837189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9941674468009005</v>
+        <v>0.9994686357268637</v>
       </c>
       <c r="D6">
-        <v>1.001458115150734</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="E6">
-        <v>1.001458115150734</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="F6">
-        <v>0.9941674468009005</v>
+        <v>0.9994686357268637</v>
       </c>
       <c r="G6">
-        <v>1.003888375900058</v>
+        <v>1.000354243027515</v>
       </c>
       <c r="H6">
-        <v>0.9967920954453524</v>
+        <v>0.9997077505398135</v>
       </c>
       <c r="I6">
-        <v>1.001458115150734</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="J6">
-        <v>1.001458115150734</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="K6">
-        <v>1.001458115150734</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="L6">
-        <v>1.001458115150734</v>
+        <v>1.000132838444841</v>
       </c>
       <c r="M6">
-        <v>0.9978127809758174</v>
+        <v>0.9998007370858522</v>
       </c>
       <c r="N6">
-        <v>0.9978127809758174</v>
+        <v>0.9998007370858522</v>
       </c>
       <c r="O6">
-        <v>0.9974725524656624</v>
+        <v>0.999769741570506</v>
       </c>
       <c r="P6">
-        <v>0.9990278923674563</v>
+        <v>0.9999114375388484</v>
       </c>
       <c r="Q6">
-        <v>0.9990278923674563</v>
+        <v>0.9999114375388484</v>
       </c>
       <c r="R6">
-        <v>0.9996354480632758</v>
+        <v>0.9999667877653464</v>
       </c>
       <c r="S6">
-        <v>0.9996354480632758</v>
+        <v>0.9999667877653464</v>
       </c>
       <c r="T6">
-        <v>0.9998703772664189</v>
+        <v>0.9999881907714524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998181162221488</v>
+        <v>0.998261867471183</v>
       </c>
       <c r="D7">
-        <v>1.000045471229416</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="E7">
-        <v>1.000045471229416</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="F7">
-        <v>0.9998181162221488</v>
+        <v>0.998261867471183</v>
       </c>
       <c r="G7">
-        <v>1.00012125422771</v>
+        <v>1.001158755734869</v>
       </c>
       <c r="H7">
-        <v>0.9998999648792914</v>
+        <v>0.9990440275072021</v>
       </c>
       <c r="I7">
-        <v>1.000045471229416</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="J7">
-        <v>1.000045471229416</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="K7">
-        <v>1.000045471229416</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="L7">
-        <v>1.000045471229416</v>
+        <v>1.000434531145534</v>
       </c>
       <c r="M7">
-        <v>0.9999317937257826</v>
+        <v>0.9993481993083586</v>
       </c>
       <c r="N7">
-        <v>0.9999317937257826</v>
+        <v>0.9993481993083586</v>
       </c>
       <c r="O7">
-        <v>0.9999211841102854</v>
+        <v>0.9992468087079732</v>
       </c>
       <c r="P7">
-        <v>0.9999696862269939</v>
+        <v>0.9997103099207504</v>
       </c>
       <c r="Q7">
-        <v>0.9999696862269939</v>
+        <v>0.9997103099207504</v>
       </c>
       <c r="R7">
-        <v>0.9999886324775995</v>
+        <v>0.9998913652269463</v>
       </c>
       <c r="S7">
-        <v>0.9999886324775995</v>
+        <v>0.9998913652269463</v>
       </c>
       <c r="T7">
-        <v>0.9999959581695665</v>
+        <v>0.9999613740249761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999854663324844</v>
+        <v>0.9941674468009005</v>
       </c>
       <c r="D8">
-        <v>1.000003633233061</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="E8">
-        <v>1.000003633233061</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="F8">
-        <v>0.9999854663324844</v>
+        <v>0.9941674468009005</v>
       </c>
       <c r="G8">
-        <v>1.000009687114081</v>
+        <v>1.003888375900058</v>
       </c>
       <c r="H8">
-        <v>0.9999920074323341</v>
+        <v>0.9967920954453524</v>
       </c>
       <c r="I8">
-        <v>1.000003633233061</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="J8">
-        <v>1.000003633233061</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="K8">
-        <v>1.000003633233061</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="L8">
-        <v>1.000003633233061</v>
+        <v>1.001458115150734</v>
       </c>
       <c r="M8">
-        <v>0.9999945497827729</v>
+        <v>0.9978127809758174</v>
       </c>
       <c r="N8">
-        <v>0.9999945497827729</v>
+        <v>0.9978127809758174</v>
       </c>
       <c r="O8">
-        <v>0.9999937023326266</v>
+        <v>0.9974725524656624</v>
       </c>
       <c r="P8">
-        <v>0.9999975775995358</v>
+        <v>0.9990278923674563</v>
       </c>
       <c r="Q8">
-        <v>0.9999975775995358</v>
+        <v>0.9990278923674563</v>
       </c>
       <c r="R8">
-        <v>0.9999990915079171</v>
+        <v>0.9996354480632758</v>
       </c>
       <c r="S8">
-        <v>0.9999990915079171</v>
+        <v>0.9996354480632758</v>
       </c>
       <c r="T8">
-        <v>0.9999996767630139</v>
+        <v>0.9998703772664189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996792108190689</v>
+        <v>0.9998181162221488</v>
       </c>
       <c r="D9">
-        <v>1.000080196972142</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="E9">
-        <v>1.000080196972142</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="F9">
-        <v>0.9996792108190689</v>
+        <v>0.9998181162221488</v>
       </c>
       <c r="G9">
-        <v>1.000213856818168</v>
+        <v>1.00012125422771</v>
       </c>
       <c r="H9">
-        <v>0.9998235669390027</v>
+        <v>0.9998999648792914</v>
       </c>
       <c r="I9">
-        <v>1.000080196972142</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="J9">
-        <v>1.000080196972142</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="K9">
-        <v>1.000080196972142</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="L9">
-        <v>1.000080196972142</v>
+        <v>1.000045471229416</v>
       </c>
       <c r="M9">
-        <v>0.9998797038956052</v>
+        <v>0.9999317937257826</v>
       </c>
       <c r="N9">
-        <v>0.9998797038956052</v>
+        <v>0.9999317937257826</v>
       </c>
       <c r="O9">
-        <v>0.9998609915767377</v>
+        <v>0.9999211841102854</v>
       </c>
       <c r="P9">
-        <v>0.9999465349211173</v>
+        <v>0.9999696862269939</v>
       </c>
       <c r="Q9">
-        <v>0.9999465349211173</v>
+        <v>0.9999696862269939</v>
       </c>
       <c r="R9">
-        <v>0.9999799504338733</v>
+        <v>0.9999886324775995</v>
       </c>
       <c r="S9">
-        <v>0.9999799504338733</v>
+        <v>0.9999886324775995</v>
       </c>
       <c r="T9">
-        <v>0.999992870915444</v>
+        <v>0.9999959581695665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9940806088710478</v>
+        <v>0.9999854663324844</v>
       </c>
       <c r="D10">
-        <v>1.001479824597916</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="E10">
-        <v>1.001479824597916</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="F10">
-        <v>0.9940806088710478</v>
+        <v>0.9999854663324844</v>
       </c>
       <c r="G10">
-        <v>1.003946268608769</v>
+        <v>1.000009687114081</v>
       </c>
       <c r="H10">
-        <v>0.9967443345806496</v>
+        <v>0.9999920074323341</v>
       </c>
       <c r="I10">
-        <v>1.001479824597916</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="J10">
-        <v>1.001479824597916</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="K10">
-        <v>1.001479824597916</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="L10">
-        <v>1.001479824597916</v>
+        <v>1.000003633233061</v>
       </c>
       <c r="M10">
-        <v>0.9977802167344818</v>
+        <v>0.9999945497827729</v>
       </c>
       <c r="N10">
-        <v>0.9977802167344818</v>
+        <v>0.9999945497827729</v>
       </c>
       <c r="O10">
-        <v>0.9974349226832043</v>
+        <v>0.9999937023326266</v>
       </c>
       <c r="P10">
-        <v>0.9990134193556265</v>
+        <v>0.9999975775995358</v>
       </c>
       <c r="Q10">
-        <v>0.9990134193556265</v>
+        <v>0.9999975775995358</v>
       </c>
       <c r="R10">
-        <v>0.9996300206661989</v>
+        <v>0.9999990915079171</v>
       </c>
       <c r="S10">
-        <v>0.9996300206661989</v>
+        <v>0.9999990915079171</v>
       </c>
       <c r="T10">
-        <v>0.999868447642369</v>
+        <v>0.9999996767630139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9990293634633792</v>
+        <v>0.9996792108190689</v>
       </c>
       <c r="D11">
-        <v>1.000242657717006</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="E11">
-        <v>1.000242657717006</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="F11">
-        <v>0.9990293634633792</v>
+        <v>0.9996792108190689</v>
       </c>
       <c r="G11">
-        <v>1.000647090406958</v>
+        <v>1.000213856818168</v>
       </c>
       <c r="H11">
-        <v>0.9994661496685973</v>
+        <v>0.9998235669390027</v>
       </c>
       <c r="I11">
-        <v>1.000242657717006</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="J11">
-        <v>1.000242657717006</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="K11">
-        <v>1.000242657717006</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="L11">
-        <v>1.000242657717006</v>
+        <v>1.000080196972142</v>
       </c>
       <c r="M11">
-        <v>0.9996360105901927</v>
+        <v>0.9998797038956052</v>
       </c>
       <c r="N11">
-        <v>0.9996360105901927</v>
+        <v>0.9998797038956052</v>
       </c>
       <c r="O11">
-        <v>0.9995793902829941</v>
+        <v>0.9998609915767377</v>
       </c>
       <c r="P11">
-        <v>0.9998382262991306</v>
+        <v>0.9999465349211173</v>
       </c>
       <c r="Q11">
-        <v>0.9998382262991306</v>
+        <v>0.9999465349211173</v>
       </c>
       <c r="R11">
-        <v>0.9999393341535995</v>
+        <v>0.9999799504338733</v>
       </c>
       <c r="S11">
-        <v>0.9999393341535995</v>
+        <v>0.9999799504338733</v>
       </c>
       <c r="T11">
-        <v>0.9999784294483254</v>
+        <v>0.999992870915444</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9982070778842116</v>
+        <v>0.9940806088710478</v>
       </c>
       <c r="D12">
-        <v>1.000448227410527</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="E12">
-        <v>1.000448227410527</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="F12">
-        <v>0.9982070778842116</v>
+        <v>0.9940806088710478</v>
       </c>
       <c r="G12">
-        <v>1.001195284010527</v>
+        <v>1.003946268608769</v>
       </c>
       <c r="H12">
-        <v>0.9990138934736834</v>
+        <v>0.9967443345806496</v>
       </c>
       <c r="I12">
-        <v>1.000448227410527</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="J12">
-        <v>1.000448227410527</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="K12">
-        <v>1.000448227410527</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="L12">
-        <v>1.000448227410527</v>
+        <v>1.001479824597916</v>
       </c>
       <c r="M12">
-        <v>0.9993276526473693</v>
+        <v>0.9977802167344818</v>
       </c>
       <c r="N12">
-        <v>0.9993276526473693</v>
+        <v>0.9977802167344818</v>
       </c>
       <c r="O12">
-        <v>0.9992230662561408</v>
+        <v>0.9974349226832043</v>
       </c>
       <c r="P12">
-        <v>0.9997011775684218</v>
+        <v>0.9990134193556265</v>
       </c>
       <c r="Q12">
-        <v>0.9997011775684218</v>
+        <v>0.9990134193556265</v>
       </c>
       <c r="R12">
-        <v>0.9998879400289482</v>
+        <v>0.9996300206661989</v>
       </c>
       <c r="S12">
-        <v>0.9998879400289482</v>
+        <v>0.9996300206661989</v>
       </c>
       <c r="T12">
-        <v>0.9999601562666672</v>
+        <v>0.999868447642369</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001164186605298</v>
+        <v>0.9990293634633792</v>
       </c>
       <c r="D13">
-        <v>0.9997089527056611</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="E13">
-        <v>0.9997089527056611</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="F13">
-        <v>1.001164186605298</v>
+        <v>0.9990293634633792</v>
       </c>
       <c r="G13">
-        <v>0.999223874942436</v>
+        <v>1.000647090406958</v>
       </c>
       <c r="H13">
-        <v>1.000640304527157</v>
+        <v>0.9994661496685973</v>
       </c>
       <c r="I13">
-        <v>0.9997089527056611</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="J13">
-        <v>0.9997089527056611</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="K13">
-        <v>0.9997089527056611</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="L13">
-        <v>0.9997089527056611</v>
+        <v>1.000242657717006</v>
       </c>
       <c r="M13">
-        <v>1.00043656965548</v>
+        <v>0.9996360105901927</v>
       </c>
       <c r="N13">
-        <v>1.00043656965548</v>
+        <v>0.9996360105901927</v>
       </c>
       <c r="O13">
-        <v>1.000504481279372</v>
+        <v>0.9995793902829941</v>
       </c>
       <c r="P13">
-        <v>1.000194030672207</v>
+        <v>0.9998382262991306</v>
       </c>
       <c r="Q13">
-        <v>1.000194030672207</v>
+        <v>0.9998382262991306</v>
       </c>
       <c r="R13">
-        <v>1.00007276118057</v>
+        <v>0.9999393341535995</v>
       </c>
       <c r="S13">
-        <v>1.00007276118057</v>
+        <v>0.9999393341535995</v>
       </c>
       <c r="T13">
-        <v>1.000025870698646</v>
+        <v>0.9999784294483254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9897730200000008</v>
+        <v>0.9982070778842116</v>
       </c>
       <c r="D14">
-        <v>1.0025567</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="E14">
-        <v>1.0025567</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="F14">
-        <v>0.9897730200000008</v>
+        <v>0.9982070778842116</v>
       </c>
       <c r="G14">
-        <v>1.006818</v>
+        <v>1.001195284010527</v>
       </c>
       <c r="H14">
-        <v>0.9943751599999993</v>
+        <v>0.9990138934736834</v>
       </c>
       <c r="I14">
-        <v>1.0025567</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="J14">
-        <v>1.0025567</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="K14">
-        <v>1.0025567</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="L14">
-        <v>1.0025567</v>
+        <v>1.000448227410527</v>
       </c>
       <c r="M14">
-        <v>0.9961648600000003</v>
+        <v>0.9993276526473693</v>
       </c>
       <c r="N14">
-        <v>0.9961648600000003</v>
+        <v>0.9993276526473693</v>
       </c>
       <c r="O14">
-        <v>0.9955682933333332</v>
+        <v>0.9992230662561408</v>
       </c>
       <c r="P14">
-        <v>0.9982954733333335</v>
+        <v>0.9997011775684218</v>
       </c>
       <c r="Q14">
-        <v>0.9982954733333335</v>
+        <v>0.9997011775684218</v>
       </c>
       <c r="R14">
-        <v>0.9993607799999999</v>
+        <v>0.9998879400289482</v>
       </c>
       <c r="S14">
-        <v>0.9993607799999999</v>
+        <v>0.9998879400289482</v>
       </c>
       <c r="T14">
-        <v>0.9997727133333333</v>
+        <v>0.9999601562666672</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000133</v>
+        <v>1.001164186605298</v>
       </c>
       <c r="D15">
-        <v>0.99996676</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="E15">
-        <v>0.99996676</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="F15">
-        <v>1.000133</v>
+        <v>1.001164186605298</v>
       </c>
       <c r="G15">
-        <v>0.99991136</v>
+        <v>0.999223874942436</v>
       </c>
       <c r="H15">
-        <v>1.0000731</v>
+        <v>1.000640304527157</v>
       </c>
       <c r="I15">
-        <v>0.99996676</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="J15">
-        <v>0.99996676</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="K15">
-        <v>0.99996676</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="L15">
-        <v>0.99996676</v>
+        <v>0.9997089527056611</v>
       </c>
       <c r="M15">
-        <v>1.00004988</v>
+        <v>1.00043656965548</v>
       </c>
       <c r="N15">
-        <v>1.00004988</v>
+        <v>1.00043656965548</v>
       </c>
       <c r="O15">
-        <v>1.00005762</v>
+        <v>1.000504481279372</v>
       </c>
       <c r="P15">
-        <v>1.000022173333333</v>
+        <v>1.000194030672207</v>
       </c>
       <c r="Q15">
-        <v>1.000022173333333</v>
+        <v>1.000194030672207</v>
       </c>
       <c r="R15">
-        <v>1.00000832</v>
+        <v>1.00007276118057</v>
       </c>
       <c r="S15">
-        <v>1.00000832</v>
+        <v>1.00007276118057</v>
       </c>
       <c r="T15">
-        <v>1.000002956666666</v>
+        <v>1.000025870698646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9959779000000001</v>
+        <v>0.9897730200000008</v>
       </c>
       <c r="D16">
-        <v>1.0010055</v>
+        <v>1.0025567</v>
       </c>
       <c r="E16">
-        <v>1.0010055</v>
+        <v>1.0025567</v>
       </c>
       <c r="F16">
-        <v>0.9959779000000001</v>
+        <v>0.9897730200000008</v>
       </c>
       <c r="G16">
-        <v>1.0026814</v>
+        <v>1.006818</v>
       </c>
       <c r="H16">
-        <v>0.99778785</v>
+        <v>0.9943751599999993</v>
       </c>
       <c r="I16">
-        <v>1.0010055</v>
+        <v>1.0025567</v>
       </c>
       <c r="J16">
-        <v>1.0010055</v>
+        <v>1.0025567</v>
       </c>
       <c r="K16">
-        <v>1.0010055</v>
+        <v>1.0025567</v>
       </c>
       <c r="L16">
-        <v>1.0010055</v>
+        <v>1.0025567</v>
       </c>
       <c r="M16">
-        <v>0.9984917</v>
+        <v>0.9961648600000003</v>
       </c>
       <c r="N16">
-        <v>0.9984917</v>
+        <v>0.9961648600000003</v>
       </c>
       <c r="O16">
-        <v>0.9982570833333333</v>
+        <v>0.9955682933333332</v>
       </c>
       <c r="P16">
-        <v>0.9993296333333334</v>
+        <v>0.9982954733333335</v>
       </c>
       <c r="Q16">
-        <v>0.9993296333333334</v>
+        <v>0.9982954733333335</v>
       </c>
       <c r="R16">
-        <v>0.9997486</v>
+        <v>0.9993607799999999</v>
       </c>
       <c r="S16">
-        <v>0.9997486</v>
+        <v>0.9993607799999999</v>
       </c>
       <c r="T16">
-        <v>0.9999106083333333</v>
+        <v>0.9997727133333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0051883</v>
+        <v>1.000133</v>
       </c>
       <c r="D17">
-        <v>0.99870293</v>
+        <v>0.99996676</v>
       </c>
       <c r="E17">
-        <v>0.99870293</v>
+        <v>0.99996676</v>
       </c>
       <c r="F17">
-        <v>1.0051883</v>
+        <v>1.000133</v>
       </c>
       <c r="G17">
-        <v>0.99654114</v>
+        <v>0.99991136</v>
       </c>
       <c r="H17">
-        <v>1.0028536</v>
+        <v>1.0000731</v>
       </c>
       <c r="I17">
-        <v>0.99870293</v>
+        <v>0.99996676</v>
       </c>
       <c r="J17">
-        <v>0.99870293</v>
+        <v>0.99996676</v>
       </c>
       <c r="K17">
-        <v>0.99870293</v>
+        <v>0.99996676</v>
       </c>
       <c r="L17">
-        <v>0.99870293</v>
+        <v>0.99996676</v>
       </c>
       <c r="M17">
-        <v>1.001945615</v>
+        <v>1.00004988</v>
       </c>
       <c r="N17">
-        <v>1.001945615</v>
+        <v>1.00004988</v>
       </c>
       <c r="O17">
-        <v>1.002248276666666</v>
+        <v>1.00005762</v>
       </c>
       <c r="P17">
-        <v>1.00086472</v>
+        <v>1.000022173333333</v>
       </c>
       <c r="Q17">
-        <v>1.00086472</v>
+        <v>1.000022173333333</v>
       </c>
       <c r="R17">
-        <v>1.0003242725</v>
+        <v>1.00000832</v>
       </c>
       <c r="S17">
-        <v>1.0003242725</v>
+        <v>1.00000832</v>
       </c>
       <c r="T17">
-        <v>1.000115305</v>
+        <v>1.000002956666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9962192394520544</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D18">
-        <v>1.000945195616438</v>
+        <v>1.0010055</v>
       </c>
       <c r="E18">
-        <v>1.000945195616438</v>
+        <v>1.0010055</v>
       </c>
       <c r="F18">
-        <v>0.9962192394520544</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G18">
-        <v>1.002520499726028</v>
+        <v>1.0026814</v>
       </c>
       <c r="H18">
-        <v>0.9979205797260277</v>
+        <v>0.99778785</v>
       </c>
       <c r="I18">
-        <v>1.000945195616438</v>
+        <v>1.0010055</v>
       </c>
       <c r="J18">
-        <v>1.000945195616438</v>
+        <v>1.0010055</v>
       </c>
       <c r="K18">
-        <v>1.000945195616438</v>
+        <v>1.0010055</v>
       </c>
       <c r="L18">
-        <v>1.000945195616438</v>
+        <v>1.0010055</v>
       </c>
       <c r="M18">
-        <v>0.9985822175342461</v>
+        <v>0.9984917</v>
       </c>
       <c r="N18">
-        <v>0.9985822175342461</v>
+        <v>0.9984917</v>
       </c>
       <c r="O18">
-        <v>0.9983616715981732</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P18">
-        <v>0.9993698768949768</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q18">
-        <v>0.9993698768949768</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R18">
-        <v>0.9997637065753421</v>
+        <v>0.9997486</v>
       </c>
       <c r="S18">
-        <v>0.9997637065753421</v>
+        <v>0.9997486</v>
       </c>
       <c r="T18">
-        <v>0.9999159842922373</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9996722636842105</v>
+        <v>1.0051883</v>
       </c>
       <c r="D19">
-        <v>1.000081920526316</v>
+        <v>0.99870293</v>
       </c>
       <c r="E19">
-        <v>1.000081920526316</v>
+        <v>0.99870293</v>
       </c>
       <c r="F19">
-        <v>0.9996722636842105</v>
+        <v>1.0051883</v>
       </c>
       <c r="G19">
-        <v>1.000218491578947</v>
+        <v>0.99654114</v>
       </c>
       <c r="H19">
-        <v>0.9998197484210527</v>
+        <v>1.0028536</v>
       </c>
       <c r="I19">
-        <v>1.000081920526316</v>
+        <v>0.99870293</v>
       </c>
       <c r="J19">
-        <v>1.000081920526316</v>
+        <v>0.99870293</v>
       </c>
       <c r="K19">
-        <v>1.000081920526316</v>
+        <v>0.99870293</v>
       </c>
       <c r="L19">
-        <v>1.000081920526316</v>
+        <v>0.99870293</v>
       </c>
       <c r="M19">
-        <v>0.9998770921052631</v>
+        <v>1.001945615</v>
       </c>
       <c r="N19">
-        <v>0.9998770921052631</v>
+        <v>1.001945615</v>
       </c>
       <c r="O19">
-        <v>0.9998579775438596</v>
+        <v>1.002248276666666</v>
       </c>
       <c r="P19">
-        <v>0.9999453682456139</v>
+        <v>1.00086472</v>
       </c>
       <c r="Q19">
-        <v>0.9999453682456139</v>
+        <v>1.00086472</v>
       </c>
       <c r="R19">
-        <v>0.9999795063157892</v>
+        <v>1.0003242725</v>
       </c>
       <c r="S19">
-        <v>0.9999795063157892</v>
+        <v>1.0003242725</v>
       </c>
       <c r="T19">
-        <v>0.9999927108771929</v>
+        <v>1.000115305</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.998305462631579</v>
+        <v>0.9962192394520544</v>
       </c>
       <c r="D20">
-        <v>1.000423632105263</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="E20">
-        <v>1.000423632105263</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="F20">
-        <v>0.998305462631579</v>
+        <v>0.9962192394520544</v>
       </c>
       <c r="G20">
-        <v>1.001129694736842</v>
+        <v>1.002520499726028</v>
       </c>
       <c r="H20">
-        <v>0.9990680010526315</v>
+        <v>0.9979205797260277</v>
       </c>
       <c r="I20">
-        <v>1.000423632105263</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="J20">
-        <v>1.000423632105263</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="K20">
-        <v>1.000423632105263</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="L20">
-        <v>1.000423632105263</v>
+        <v>1.000945195616438</v>
       </c>
       <c r="M20">
-        <v>0.9993645473684212</v>
+        <v>0.9985822175342461</v>
       </c>
       <c r="N20">
-        <v>0.9993645473684212</v>
+        <v>0.9985822175342461</v>
       </c>
       <c r="O20">
-        <v>0.9992656985964913</v>
+        <v>0.9983616715981732</v>
       </c>
       <c r="P20">
-        <v>0.9997175756140352</v>
+        <v>0.9993698768949768</v>
       </c>
       <c r="Q20">
-        <v>0.9997175756140352</v>
+        <v>0.9993698768949768</v>
       </c>
       <c r="R20">
-        <v>0.9998940897368422</v>
+        <v>0.9997637065753421</v>
       </c>
       <c r="S20">
-        <v>0.9998940897368422</v>
+        <v>0.9997637065753421</v>
       </c>
       <c r="T20">
-        <v>0.9999623424561405</v>
+        <v>0.9999159842922373</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.003468659585671</v>
+        <v>0.9996722636842105</v>
       </c>
       <c r="D21">
-        <v>0.9991328313354622</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="E21">
-        <v>0.9991328313354622</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="F21">
-        <v>1.003468659585671</v>
+        <v>0.9996722636842105</v>
       </c>
       <c r="G21">
-        <v>0.9976875647952085</v>
+        <v>1.000218491578947</v>
       </c>
       <c r="H21">
-        <v>1.001907759690433</v>
+        <v>0.9998197484210527</v>
       </c>
       <c r="I21">
-        <v>0.9991328313354622</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="J21">
-        <v>0.9991328313354622</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="K21">
-        <v>0.9991328313354622</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="L21">
-        <v>0.9991328313354622</v>
+        <v>1.000081920526316</v>
       </c>
       <c r="M21">
-        <v>1.001300745460566</v>
+        <v>0.9998770921052631</v>
       </c>
       <c r="N21">
-        <v>1.001300745460566</v>
+        <v>0.9998770921052631</v>
       </c>
       <c r="O21">
-        <v>1.001503083537189</v>
+        <v>0.9998579775438596</v>
       </c>
       <c r="P21">
-        <v>1.000578107418865</v>
+        <v>0.9999453682456139</v>
       </c>
       <c r="Q21">
-        <v>1.000578107418865</v>
+        <v>0.9999453682456139</v>
       </c>
       <c r="R21">
-        <v>1.000216788398014</v>
+        <v>0.9999795063157892</v>
       </c>
       <c r="S21">
-        <v>1.000216788398014</v>
+        <v>0.9999795063157892</v>
       </c>
       <c r="T21">
-        <v>1.000077079679617</v>
+        <v>0.9999927108771929</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000914067258839</v>
+        <v>0.998305462631579</v>
       </c>
       <c r="D22">
-        <v>0.9997714811504449</v>
+        <v>1.000423632105263</v>
       </c>
       <c r="E22">
-        <v>0.9997714811504449</v>
+        <v>1.000423632105263</v>
       </c>
       <c r="F22">
-        <v>1.000914067258839</v>
+        <v>0.998305462631579</v>
       </c>
       <c r="G22">
-        <v>0.999390627392853</v>
+        <v>1.001129694736842</v>
       </c>
       <c r="H22">
-        <v>1.000502746216755</v>
+        <v>0.9990680010526315</v>
       </c>
       <c r="I22">
-        <v>0.9997714811504449</v>
+        <v>1.000423632105263</v>
       </c>
       <c r="J22">
-        <v>0.9997714811504449</v>
+        <v>1.000423632105263</v>
       </c>
       <c r="K22">
-        <v>0.9997714811504449</v>
+        <v>1.000423632105263</v>
       </c>
       <c r="L22">
-        <v>0.9997714811504449</v>
+        <v>1.000423632105263</v>
       </c>
       <c r="M22">
-        <v>1.000342774204642</v>
+        <v>0.9993645473684212</v>
       </c>
       <c r="N22">
-        <v>1.000342774204642</v>
+        <v>0.9993645473684212</v>
       </c>
       <c r="O22">
-        <v>1.000396098208679</v>
+        <v>0.9992656985964913</v>
       </c>
       <c r="P22">
-        <v>1.000152343186576</v>
+        <v>0.9997175756140352</v>
       </c>
       <c r="Q22">
-        <v>1.000152343186576</v>
+        <v>0.9997175756140352</v>
       </c>
       <c r="R22">
-        <v>1.000057127677543</v>
+        <v>0.9998940897368422</v>
       </c>
       <c r="S22">
-        <v>1.000057127677543</v>
+        <v>0.9998940897368422</v>
       </c>
       <c r="T22">
-        <v>1.000020314053297</v>
+        <v>0.9999623424561405</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.001179912910884</v>
+        <v>1.003468659585671</v>
       </c>
       <c r="D23">
-        <v>0.9997050280197765</v>
+        <v>0.9991328313354622</v>
       </c>
       <c r="E23">
-        <v>0.9997050280197765</v>
+        <v>0.9991328313354622</v>
       </c>
       <c r="F23">
-        <v>1.001179912910884</v>
+        <v>1.003468659585671</v>
       </c>
       <c r="G23">
-        <v>0.9992133912421399</v>
+        <v>0.9976875647952085</v>
       </c>
       <c r="H23">
-        <v>1.000648947208944</v>
+        <v>1.001907759690433</v>
       </c>
       <c r="I23">
-        <v>0.9997050280197765</v>
+        <v>0.9991328313354622</v>
       </c>
       <c r="J23">
-        <v>0.9997050280197765</v>
+        <v>0.9991328313354622</v>
       </c>
       <c r="K23">
-        <v>0.9997050280197765</v>
+        <v>0.9991328313354622</v>
       </c>
       <c r="L23">
-        <v>0.9997050280197765</v>
+        <v>0.9991328313354622</v>
       </c>
       <c r="M23">
-        <v>1.00044247046533</v>
+        <v>1.001300745460566</v>
       </c>
       <c r="N23">
-        <v>1.00044247046533</v>
+        <v>1.001300745460566</v>
       </c>
       <c r="O23">
-        <v>1.000511296046535</v>
+        <v>1.001503083537189</v>
       </c>
       <c r="P23">
-        <v>1.000196656316812</v>
+        <v>1.000578107418865</v>
       </c>
       <c r="Q23">
-        <v>1.000196656316812</v>
+        <v>1.000578107418865</v>
       </c>
       <c r="R23">
-        <v>1.000073749242553</v>
+        <v>1.000216788398014</v>
       </c>
       <c r="S23">
-        <v>1.000073749242553</v>
+        <v>1.000216788398014</v>
       </c>
       <c r="T23">
-        <v>1.000026222570216</v>
+        <v>1.000077079679617</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000304270852529</v>
+        <v>1.000914067258839</v>
       </c>
       <c r="D24">
-        <v>0.9999239295944984</v>
+        <v>0.9997714811504449</v>
       </c>
       <c r="E24">
-        <v>0.9999239295944984</v>
+        <v>0.9997714811504449</v>
       </c>
       <c r="F24">
-        <v>1.000304270852529</v>
+        <v>1.000914067258839</v>
       </c>
       <c r="G24">
-        <v>0.999797155745701</v>
+        <v>0.999390627392853</v>
       </c>
       <c r="H24">
-        <v>1.0001673502904</v>
+        <v>1.000502746216755</v>
       </c>
       <c r="I24">
-        <v>0.9999239295944984</v>
+        <v>0.9997714811504449</v>
       </c>
       <c r="J24">
-        <v>0.9999239295944984</v>
+        <v>0.9997714811504449</v>
       </c>
       <c r="K24">
-        <v>0.9999239295944984</v>
+        <v>0.9997714811504449</v>
       </c>
       <c r="L24">
-        <v>0.9999239295944984</v>
+        <v>0.9997714811504449</v>
       </c>
       <c r="M24">
-        <v>1.000114100223514</v>
+        <v>1.000342774204642</v>
       </c>
       <c r="N24">
-        <v>1.000114100223514</v>
+        <v>1.000342774204642</v>
       </c>
       <c r="O24">
-        <v>1.000131850245809</v>
+        <v>1.000396098208679</v>
       </c>
       <c r="P24">
-        <v>1.000050710013842</v>
+        <v>1.000152343186576</v>
       </c>
       <c r="Q24">
-        <v>1.000050710013842</v>
+        <v>1.000152343186576</v>
       </c>
       <c r="R24">
-        <v>1.000019014909006</v>
+        <v>1.000057127677543</v>
       </c>
       <c r="S24">
-        <v>1.000019014909006</v>
+        <v>1.000057127677543</v>
       </c>
       <c r="T24">
-        <v>1.000006760945354</v>
+        <v>1.000020314053297</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9995323990763613</v>
+        <v>1.001179912910884</v>
       </c>
       <c r="D25">
-        <v>1.000116902565609</v>
+        <v>0.9997050280197765</v>
       </c>
       <c r="E25">
-        <v>1.000116902565609</v>
+        <v>0.9997050280197765</v>
       </c>
       <c r="F25">
-        <v>0.9995323990763613</v>
+        <v>1.001179912910884</v>
       </c>
       <c r="G25">
-        <v>1.000311729037775</v>
+        <v>0.9992133912421399</v>
       </c>
       <c r="H25">
-        <v>0.9997428237755831</v>
+        <v>1.000648947208944</v>
       </c>
       <c r="I25">
-        <v>1.000116902565609</v>
+        <v>0.9997050280197765</v>
       </c>
       <c r="J25">
-        <v>1.000116902565609</v>
+        <v>0.9997050280197765</v>
       </c>
       <c r="K25">
-        <v>1.000116902565609</v>
+        <v>0.9997050280197765</v>
       </c>
       <c r="L25">
-        <v>1.000116902565609</v>
+        <v>0.9997050280197765</v>
       </c>
       <c r="M25">
-        <v>0.9998246508209854</v>
+        <v>1.00044247046533</v>
       </c>
       <c r="N25">
-        <v>0.9998246508209854</v>
+        <v>1.00044247046533</v>
       </c>
       <c r="O25">
-        <v>0.9997973751391847</v>
+        <v>1.000511296046535</v>
       </c>
       <c r="P25">
-        <v>0.9999220680691933</v>
+        <v>1.000196656316812</v>
       </c>
       <c r="Q25">
-        <v>0.9999220680691933</v>
+        <v>1.000196656316812</v>
       </c>
       <c r="R25">
-        <v>0.9999707766932973</v>
+        <v>1.000073749242553</v>
       </c>
       <c r="S25">
-        <v>0.9999707766932973</v>
+        <v>1.000073749242553</v>
       </c>
       <c r="T25">
-        <v>0.9999896099310912</v>
+        <v>1.000026222570216</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9998615009508044</v>
+        <v>1.000304270852529</v>
       </c>
       <c r="D26">
-        <v>1.000034627273806</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="E26">
-        <v>1.000034627273806</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="F26">
-        <v>0.9998615009508044</v>
+        <v>1.000304270852529</v>
       </c>
       <c r="G26">
-        <v>1.000092331658365</v>
+        <v>0.999797155745701</v>
       </c>
       <c r="H26">
-        <v>0.9999238244352632</v>
+        <v>1.0001673502904</v>
       </c>
       <c r="I26">
-        <v>1.000034627273806</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="J26">
-        <v>1.000034627273806</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="K26">
-        <v>1.000034627273806</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="L26">
-        <v>1.000034627273806</v>
+        <v>0.9999239295944984</v>
       </c>
       <c r="M26">
-        <v>0.9999480641123053</v>
+        <v>1.000114100223514</v>
       </c>
       <c r="N26">
-        <v>0.9999480641123053</v>
+        <v>1.000114100223514</v>
       </c>
       <c r="O26">
-        <v>0.9999399842199579</v>
+        <v>1.000131850245809</v>
       </c>
       <c r="P26">
-        <v>0.9999769184994722</v>
+        <v>1.000050710013842</v>
       </c>
       <c r="Q26">
-        <v>0.9999769184994722</v>
+        <v>1.000050710013842</v>
       </c>
       <c r="R26">
-        <v>0.9999913456930558</v>
+        <v>1.000019014909006</v>
       </c>
       <c r="S26">
-        <v>0.9999913456930558</v>
+        <v>1.000019014909006</v>
       </c>
       <c r="T26">
-        <v>0.9999969231443085</v>
+        <v>1.000006760945354</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.999390461077688</v>
+        <v>0.9995323990763613</v>
       </c>
       <c r="D27">
-        <v>1.000152381787966</v>
+        <v>1.000116902565609</v>
       </c>
       <c r="E27">
-        <v>1.000152381787966</v>
+        <v>1.000116902565609</v>
       </c>
       <c r="F27">
-        <v>0.999390461077688</v>
+        <v>0.9995323990763613</v>
       </c>
       <c r="G27">
-        <v>1.000406350622939</v>
+        <v>1.000311729037775</v>
       </c>
       <c r="H27">
-        <v>0.9996647607360739</v>
+        <v>0.9997428237755831</v>
       </c>
       <c r="I27">
-        <v>1.000152381787966</v>
+        <v>1.000116902565609</v>
       </c>
       <c r="J27">
-        <v>1.000152381787966</v>
+        <v>1.000116902565609</v>
       </c>
       <c r="K27">
-        <v>1.000152381787966</v>
+        <v>1.000116902565609</v>
       </c>
       <c r="L27">
-        <v>1.000152381787966</v>
+        <v>1.000116902565609</v>
       </c>
       <c r="M27">
-        <v>0.9997714214328269</v>
+        <v>0.9998246508209854</v>
       </c>
       <c r="N27">
-        <v>0.9997714214328269</v>
+        <v>0.9998246508209854</v>
       </c>
       <c r="O27">
-        <v>0.9997358678672427</v>
+        <v>0.9997973751391847</v>
       </c>
       <c r="P27">
-        <v>0.9998984082178732</v>
+        <v>0.9999220680691933</v>
       </c>
       <c r="Q27">
-        <v>0.9998984082178732</v>
+        <v>0.9999220680691933</v>
       </c>
       <c r="R27">
-        <v>0.9999619016103964</v>
+        <v>0.9999707766932973</v>
       </c>
       <c r="S27">
-        <v>0.9999619016103964</v>
+        <v>0.9999707766932973</v>
       </c>
       <c r="T27">
-        <v>0.9999864529667665</v>
+        <v>0.9999896099310912</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000167905870653</v>
+        <v>0.9998615009508044</v>
       </c>
       <c r="D28">
-        <v>0.9999580191298295</v>
+        <v>1.000034627273806</v>
       </c>
       <c r="E28">
-        <v>0.9999580191298295</v>
+        <v>1.000034627273806</v>
       </c>
       <c r="F28">
-        <v>1.000167905870653</v>
+        <v>0.9998615009508044</v>
       </c>
       <c r="G28">
-        <v>0.9998880602349608</v>
+        <v>1.000092331658365</v>
       </c>
       <c r="H28">
-        <v>1.000092351718114</v>
+        <v>0.9999238244352632</v>
       </c>
       <c r="I28">
-        <v>0.9999580191298295</v>
+        <v>1.000034627273806</v>
       </c>
       <c r="J28">
-        <v>0.9999580191298295</v>
+        <v>1.000034627273806</v>
       </c>
       <c r="K28">
-        <v>0.9999580191298295</v>
+        <v>1.000034627273806</v>
       </c>
       <c r="L28">
-        <v>0.9999580191298295</v>
+        <v>1.000034627273806</v>
       </c>
       <c r="M28">
-        <v>1.000062962500241</v>
+        <v>0.9999480641123053</v>
       </c>
       <c r="N28">
-        <v>1.000062962500241</v>
+        <v>0.9999480641123053</v>
       </c>
       <c r="O28">
-        <v>1.000072758906199</v>
+        <v>0.9999399842199579</v>
       </c>
       <c r="P28">
-        <v>1.000027981376771</v>
+        <v>0.9999769184994722</v>
       </c>
       <c r="Q28">
-        <v>1.000027981376771</v>
+        <v>0.9999769184994722</v>
       </c>
       <c r="R28">
-        <v>1.000010490815035</v>
+        <v>0.9999913456930558</v>
       </c>
       <c r="S28">
-        <v>1.000010490815035</v>
+        <v>0.9999913456930558</v>
       </c>
       <c r="T28">
-        <v>1.000003729202203</v>
+        <v>0.9999969231443085</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.999390461077688</v>
+      </c>
+      <c r="D29">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="E29">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="F29">
+        <v>0.999390461077688</v>
+      </c>
+      <c r="G29">
+        <v>1.000406350622939</v>
+      </c>
+      <c r="H29">
+        <v>0.9996647607360739</v>
+      </c>
+      <c r="I29">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="J29">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="K29">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="L29">
+        <v>1.000152381787966</v>
+      </c>
+      <c r="M29">
+        <v>0.9997714214328269</v>
+      </c>
+      <c r="N29">
+        <v>0.9997714214328269</v>
+      </c>
+      <c r="O29">
+        <v>0.9997358678672427</v>
+      </c>
+      <c r="P29">
+        <v>0.9998984082178732</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998984082178732</v>
+      </c>
+      <c r="R29">
+        <v>0.9999619016103964</v>
+      </c>
+      <c r="S29">
+        <v>0.9999619016103964</v>
+      </c>
+      <c r="T29">
+        <v>0.9999864529667665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000167905870653</v>
+      </c>
+      <c r="D30">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="E30">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="F30">
+        <v>1.000167905870653</v>
+      </c>
+      <c r="G30">
+        <v>0.9998880602349608</v>
+      </c>
+      <c r="H30">
+        <v>1.000092351718114</v>
+      </c>
+      <c r="I30">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="J30">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="K30">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="L30">
+        <v>0.9999580191298295</v>
+      </c>
+      <c r="M30">
+        <v>1.000062962500241</v>
+      </c>
+      <c r="N30">
+        <v>1.000062962500241</v>
+      </c>
+      <c r="O30">
+        <v>1.000072758906199</v>
+      </c>
+      <c r="P30">
+        <v>1.000027981376771</v>
+      </c>
+      <c r="Q30">
+        <v>1.000027981376771</v>
+      </c>
+      <c r="R30">
+        <v>1.000010490815035</v>
+      </c>
+      <c r="S30">
+        <v>1.000010490815035</v>
+      </c>
+      <c r="T30">
+        <v>1.000003729202203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.002044607752316</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9994888406864756</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9994888406864756</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.002044607752316</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9986369245362688</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.001124535635235</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9994888406864756</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9994888406864756</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9994888406864756</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9994888406864756</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000766724219396</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000766724219396</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000885994691342</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000340763041756</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000340763041756</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000127782452936</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000127782452936</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000045431663874</v>
       </c>
     </row>
